--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -693,7 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AU4" workbookViewId="0">
+      <selection activeCell="BC31" sqref="BC31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2947,7 +2949,8 @@
         <v>3052</v>
       </c>
       <c r="AX24" s="11">
-        <v>3758756</v>
+        <f>3758756/1000</f>
+        <v>3758.7559999999999</v>
       </c>
       <c r="AY24" s="11">
         <v>2414</v>
@@ -4168,7 +4171,7 @@
         <v>3052</v>
       </c>
       <c r="AX33" s="17">
-        <v>3758756</v>
+        <v>3758.7559999999999</v>
       </c>
       <c r="AY33" s="17">
         <v>2414</v>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A19A3-2585-472E-AEF0-61F2749CAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +446,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -457,7 +458,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -504,6 +505,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,6 +557,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -690,19 +725,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU4" workbookViewId="0">
-      <selection activeCell="BC31" sqref="BC31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -814,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -871,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -926,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -983,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1095,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1307,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1523,7 +1556,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1841,7 +1874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2214,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
@@ -2371,7 +2404,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2426,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2481,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2536,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2693,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2748,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2805,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2949,8 +2982,7 @@
         <v>3052</v>
       </c>
       <c r="AX24" s="11">
-        <f>3758756/1000</f>
-        <v>3758.7559999999999</v>
+        <v>3758756</v>
       </c>
       <c r="AY24" s="11">
         <v>2414</v>
@@ -2965,7 +2997,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
@@ -3124,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3442,7 +3474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3499,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3656,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3713,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3872,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>66</v>
       </c>
@@ -4029,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
@@ -4171,7 +4203,7 @@
         <v>3052</v>
       </c>
       <c r="AX33" s="17">
-        <v>3758.7559999999999</v>
+        <v>3758756</v>
       </c>
       <c r="AY33" s="17">
         <v>2414</v>
@@ -4186,7 +4218,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4241,7 +4273,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4296,7 +4328,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4351,7 +4383,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
@@ -4508,7 +4540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4563,7 +4595,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
@@ -4620,7 +4652,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -4779,7 +4811,7 @@
         <v>2264156</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -4938,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -5097,7 +5129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5256,7 +5288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5345,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
@@ -5472,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>70</v>
       </c>
@@ -5529,7 +5561,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5688,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
@@ -5847,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -5904,7 +5936,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>72</v>
       </c>
@@ -6063,7 +6095,7 @@
         <v>-2136</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="18" t="s">
         <v>63</v>
       </c>
@@ -6220,7 +6252,7 @@
         <v>2262020</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6275,7 +6307,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6330,7 +6362,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6385,7 +6417,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
@@ -6542,7 +6574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6597,7 +6629,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>74</v>
       </c>
@@ -6654,7 +6686,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -6813,7 +6845,7 @@
         <v>922409670</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
@@ -6972,7 +7004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7131,7 +7163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A19A3-2585-472E-AEF0-61F2749CAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -253,7 +252,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -725,17 +724,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AU16" workbookViewId="0">
+      <selection activeCell="AX34" sqref="AX34:BB34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +791,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +848,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +905,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +960,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1017,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1074,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1129,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1341,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1398,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2091,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2460,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2515,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2570,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2782,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2982,7 +2983,8 @@
         <v>3052</v>
       </c>
       <c r="AX24" s="11">
-        <v>3758756</v>
+        <f>3758756/1000</f>
+        <v>3758.7559999999999</v>
       </c>
       <c r="AY24" s="11">
         <v>2414</v>
@@ -2997,7 +2999,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3474,7 +3476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3531,7 +3533,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>66</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
@@ -4203,7 +4205,8 @@
         <v>3052</v>
       </c>
       <c r="AX33" s="17">
-        <v>3758756</v>
+        <f>3758756/1000</f>
+        <v>3758.7559999999999</v>
       </c>
       <c r="AY33" s="17">
         <v>2414</v>
@@ -4218,7 +4221,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4273,7 +4276,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4328,7 +4331,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4383,7 +4386,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4595,7 +4598,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
@@ -4652,7 +4655,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -4811,7 +4814,7 @@
         <v>2264156</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5288,7 +5291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>69</v>
       </c>
@@ -5345,7 +5348,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>70</v>
       </c>
@@ -5561,7 +5564,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5720,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -5936,7 +5939,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>72</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>-2136</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>63</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>2262020</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6307,7 +6310,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6362,7 +6365,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6417,7 +6420,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6629,7 +6632,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>74</v>
       </c>
@@ -6686,7 +6689,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>922409670</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7163,7 +7166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E137F6-4D0F-4AD4-BBAD-523F2A1D5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 11 منتهی به 1397/08</t>
   </si>
   <si>
@@ -184,6 +179,12 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>تایر</t>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,19 +725,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB61"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AU16" workbookViewId="0">
-      <selection activeCell="AX34" sqref="AX34:BB34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -791,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -848,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -905,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -960,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1129,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1341,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1484,80 +1483,80 @@
       <c r="AD11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF11" s="11" t="s">
-        <v>57</v>
+      <c r="AE11" s="11">
+        <v>2412</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>2286</v>
       </c>
       <c r="AG11" s="11">
-        <v>2412</v>
+        <v>2531</v>
       </c>
       <c r="AH11" s="11">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AI11" s="11">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AJ11" s="11">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AK11" s="11">
-        <v>2768</v>
+        <v>2573</v>
       </c>
       <c r="AL11" s="11">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AM11" s="11">
-        <v>2573</v>
+        <v>2343</v>
       </c>
       <c r="AN11" s="11">
-        <v>2495</v>
+        <v>2157</v>
       </c>
       <c r="AO11" s="11">
-        <v>2343</v>
+        <v>2742</v>
       </c>
       <c r="AP11" s="11">
-        <v>2157</v>
+        <v>2754</v>
       </c>
       <c r="AQ11" s="11">
-        <v>2742</v>
+        <v>2841</v>
       </c>
       <c r="AR11" s="11">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AS11" s="11">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AT11" s="11">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AU11" s="11">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AV11" s="11">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AW11" s="11">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AX11" s="11">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AY11" s="11">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="BA11" s="11">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="BB11" s="11">
-        <v>2656</v>
+        <v>2700</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1566,121 +1565,121 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>38</v>
+      </c>
+      <c r="F12" s="13">
+        <v>48</v>
+      </c>
+      <c r="G12" s="13">
+        <v>29</v>
+      </c>
+      <c r="H12" s="13">
+        <v>24</v>
+      </c>
+      <c r="I12" s="13">
+        <v>31</v>
+      </c>
+      <c r="J12" s="13">
+        <v>9</v>
+      </c>
+      <c r="K12" s="13">
+        <v>28</v>
+      </c>
+      <c r="L12" s="13">
+        <v>35</v>
+      </c>
+      <c r="M12" s="13">
+        <v>23</v>
+      </c>
+      <c r="N12" s="13">
+        <v>26</v>
+      </c>
+      <c r="O12" s="13">
+        <v>24</v>
+      </c>
+      <c r="P12" s="13">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>31</v>
+      </c>
+      <c r="R12" s="13">
+        <v>19</v>
+      </c>
+      <c r="S12" s="13">
+        <v>22</v>
+      </c>
+      <c r="T12" s="13">
+        <v>10</v>
+      </c>
+      <c r="U12" s="13">
         <v>11</v>
       </c>
-      <c r="F12" s="13">
-        <v>25</v>
-      </c>
-      <c r="G12" s="13">
-        <v>38</v>
-      </c>
-      <c r="H12" s="13">
-        <v>48</v>
-      </c>
-      <c r="I12" s="13">
-        <v>29</v>
-      </c>
-      <c r="J12" s="13">
-        <v>24</v>
-      </c>
-      <c r="K12" s="13">
-        <v>31</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="V12" s="13">
+        <v>5</v>
+      </c>
+      <c r="W12" s="13">
+        <v>5</v>
+      </c>
+      <c r="X12" s="13">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="13">
         <v>9</v>
       </c>
-      <c r="M12" s="13">
-        <v>28</v>
-      </c>
-      <c r="N12" s="13">
-        <v>35</v>
-      </c>
-      <c r="O12" s="13">
-        <v>23</v>
-      </c>
-      <c r="P12" s="13">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>24</v>
-      </c>
-      <c r="R12" s="13">
-        <v>35</v>
-      </c>
-      <c r="S12" s="13">
-        <v>31</v>
-      </c>
-      <c r="T12" s="13">
-        <v>19</v>
-      </c>
-      <c r="U12" s="13">
-        <v>22</v>
-      </c>
-      <c r="V12" s="13">
+      <c r="Z12" s="13">
         <v>10</v>
       </c>
-      <c r="W12" s="13">
+      <c r="AA12" s="13">
         <v>11</v>
       </c>
-      <c r="X12" s="13">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AA12" s="13">
+      <c r="AB12" s="13">
         <v>9</v>
       </c>
-      <c r="AB12" s="13">
-        <v>10</v>
-      </c>
       <c r="AC12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="13">
         <v>11</v>
       </c>
-      <c r="AD12" s="13">
-        <v>9</v>
-      </c>
       <c r="AE12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
         <v>3</v>
       </c>
-      <c r="AF12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AG12" s="13">
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="13">
         <v>1</v>
       </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
       <c r="AP12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1716,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1730,14 +1729,14 @@
       <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
+      <c r="G13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>57</v>
+      <c r="I13" s="11">
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
@@ -1766,11 +1765,11 @@
       <c r="R13" s="11">
         <v>0</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
+      <c r="S13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>57</v>
@@ -1875,7 +1874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1884,89 +1883,89 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1402</v>
+        <v>1955</v>
       </c>
       <c r="F14" s="13">
-        <v>2305</v>
+        <v>2036</v>
       </c>
       <c r="G14" s="13">
-        <v>1955</v>
+        <v>1610</v>
       </c>
       <c r="H14" s="13">
-        <v>2036</v>
+        <v>1789</v>
       </c>
       <c r="I14" s="13">
-        <v>1610</v>
+        <v>1909</v>
       </c>
       <c r="J14" s="13">
-        <v>1789</v>
+        <v>426</v>
       </c>
       <c r="K14" s="13">
-        <v>1909</v>
+        <v>1238</v>
       </c>
       <c r="L14" s="13">
-        <v>426</v>
+        <v>2054</v>
       </c>
       <c r="M14" s="13">
-        <v>1238</v>
+        <v>1374</v>
       </c>
       <c r="N14" s="13">
-        <v>2054</v>
+        <v>2286</v>
       </c>
       <c r="O14" s="13">
-        <v>1374</v>
+        <v>2350</v>
       </c>
       <c r="P14" s="13">
-        <v>2286</v>
+        <v>1356</v>
       </c>
       <c r="Q14" s="13">
-        <v>2350</v>
+        <v>1845</v>
       </c>
       <c r="R14" s="13">
-        <v>1356</v>
+        <v>2520</v>
       </c>
       <c r="S14" s="13">
-        <v>1845</v>
+        <v>2445</v>
       </c>
       <c r="T14" s="13">
-        <v>2520</v>
+        <v>2525</v>
       </c>
       <c r="U14" s="13">
-        <v>2445</v>
+        <v>1919</v>
       </c>
       <c r="V14" s="13">
-        <v>2525</v>
+        <v>2022</v>
       </c>
       <c r="W14" s="13">
-        <v>1919</v>
+        <v>2541</v>
       </c>
       <c r="X14" s="13">
-        <v>2022</v>
+        <v>2676</v>
       </c>
       <c r="Y14" s="13">
-        <v>2541</v>
+        <v>2491</v>
       </c>
       <c r="Z14" s="13">
-        <v>2676</v>
+        <v>2580</v>
       </c>
       <c r="AA14" s="13">
-        <v>2491</v>
+        <v>2623</v>
       </c>
       <c r="AB14" s="13">
-        <v>2580</v>
+        <v>2517</v>
       </c>
       <c r="AC14" s="13">
-        <v>2623</v>
+        <v>2498</v>
       </c>
       <c r="AD14" s="13">
-        <v>2517</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>2498</v>
-      </c>
-      <c r="AF14" s="13">
         <v>2576</v>
       </c>
+      <c r="AE14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2091,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2175,11 +2174,11 @@
       <c r="AD16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF16" s="17" t="s">
-        <v>57</v>
+      <c r="AE16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>0</v>
       </c>
       <c r="AG16" s="17">
         <v>0</v>
@@ -2248,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>1413</v>
+        <v>1993</v>
       </c>
       <c r="F17" s="19">
-        <v>2330</v>
+        <v>2084</v>
       </c>
       <c r="G17" s="19">
-        <v>1993</v>
+        <v>1639</v>
       </c>
       <c r="H17" s="19">
-        <v>2084</v>
+        <v>1813</v>
       </c>
       <c r="I17" s="19">
-        <v>1639</v>
+        <v>1940</v>
       </c>
       <c r="J17" s="19">
-        <v>1813</v>
+        <v>435</v>
       </c>
       <c r="K17" s="19">
-        <v>1940</v>
+        <v>1266</v>
       </c>
       <c r="L17" s="19">
-        <v>435</v>
+        <v>2089</v>
       </c>
       <c r="M17" s="19">
-        <v>1266</v>
+        <v>1397</v>
       </c>
       <c r="N17" s="19">
-        <v>2089</v>
+        <v>2312</v>
       </c>
       <c r="O17" s="19">
-        <v>1397</v>
+        <v>2374</v>
       </c>
       <c r="P17" s="19">
-        <v>2312</v>
+        <v>1391</v>
       </c>
       <c r="Q17" s="19">
-        <v>2374</v>
+        <v>1876</v>
       </c>
       <c r="R17" s="19">
-        <v>1391</v>
+        <v>2539</v>
       </c>
       <c r="S17" s="19">
-        <v>1876</v>
+        <v>2467</v>
       </c>
       <c r="T17" s="19">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="U17" s="19">
-        <v>2467</v>
+        <v>1930</v>
       </c>
       <c r="V17" s="19">
-        <v>2535</v>
+        <v>2027</v>
       </c>
       <c r="W17" s="19">
-        <v>1930</v>
+        <v>2546</v>
       </c>
       <c r="X17" s="19">
-        <v>2027</v>
+        <v>2691</v>
       </c>
       <c r="Y17" s="19">
-        <v>2546</v>
+        <v>2500</v>
       </c>
       <c r="Z17" s="19">
-        <v>2691</v>
+        <v>2590</v>
       </c>
       <c r="AA17" s="19">
-        <v>2500</v>
+        <v>2634</v>
       </c>
       <c r="AB17" s="19">
-        <v>2590</v>
+        <v>2526</v>
       </c>
       <c r="AC17" s="19">
-        <v>2634</v>
+        <v>2501</v>
       </c>
       <c r="AD17" s="19">
-        <v>2526</v>
+        <v>2587</v>
       </c>
       <c r="AE17" s="19">
-        <v>2501</v>
+        <v>2413</v>
       </c>
       <c r="AF17" s="19">
-        <v>2587</v>
+        <v>2286</v>
       </c>
       <c r="AG17" s="19">
-        <v>2413</v>
+        <v>2531</v>
       </c>
       <c r="AH17" s="19">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AI17" s="19">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AJ17" s="19">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AK17" s="19">
-        <v>2768</v>
+        <v>2575</v>
       </c>
       <c r="AL17" s="19">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AM17" s="19">
-        <v>2575</v>
+        <v>2343</v>
       </c>
       <c r="AN17" s="19">
-        <v>2495</v>
+        <v>2159</v>
       </c>
       <c r="AO17" s="19">
-        <v>2343</v>
+        <v>2743</v>
       </c>
       <c r="AP17" s="19">
-        <v>2159</v>
+        <v>2754</v>
       </c>
       <c r="AQ17" s="19">
-        <v>2743</v>
+        <v>2841</v>
       </c>
       <c r="AR17" s="19">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AS17" s="19">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AT17" s="19">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AU17" s="19">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AV17" s="19">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AW17" s="19">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AX17" s="19">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AY17" s="19">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AZ17" s="19">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="BA17" s="19">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="BB17" s="19">
-        <v>2656</v>
+        <v>2700</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2460,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2515,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2570,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2782,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2839,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2925,81 +2924,80 @@
       <c r="AD24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF24" s="11" t="s">
-        <v>57</v>
+      <c r="AE24" s="11">
+        <v>1930</v>
+      </c>
+      <c r="AF24" s="11">
+        <v>2128</v>
       </c>
       <c r="AG24" s="11">
-        <v>1930</v>
+        <v>2471</v>
       </c>
       <c r="AH24" s="11">
-        <v>2128</v>
+        <v>2290</v>
       </c>
       <c r="AI24" s="11">
-        <v>2471</v>
+        <v>2742</v>
       </c>
       <c r="AJ24" s="11">
-        <v>2290</v>
+        <v>2892</v>
       </c>
       <c r="AK24" s="11">
-        <v>2742</v>
+        <v>1939</v>
       </c>
       <c r="AL24" s="11">
-        <v>2892</v>
+        <v>2494</v>
       </c>
       <c r="AM24" s="11">
-        <v>1939</v>
+        <v>2559</v>
       </c>
       <c r="AN24" s="11">
-        <v>2494</v>
+        <v>2111</v>
       </c>
       <c r="AO24" s="11">
-        <v>2559</v>
+        <v>2402</v>
       </c>
       <c r="AP24" s="11">
-        <v>2111</v>
+        <v>3772</v>
       </c>
       <c r="AQ24" s="11">
-        <v>2402</v>
+        <v>2245</v>
       </c>
       <c r="AR24" s="11">
-        <v>3772</v>
+        <v>2598</v>
       </c>
       <c r="AS24" s="11">
-        <v>2245</v>
+        <v>2574</v>
       </c>
       <c r="AT24" s="11">
-        <v>2598</v>
+        <v>2218</v>
       </c>
       <c r="AU24" s="11">
-        <v>2574</v>
+        <v>3052</v>
       </c>
       <c r="AV24" s="11">
-        <v>2218</v>
+        <v>3759</v>
       </c>
       <c r="AW24" s="11">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AX24" s="11">
-        <f>3758756/1000</f>
-        <v>3758.7559999999999</v>
+        <v>2778</v>
       </c>
       <c r="AY24" s="11">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AZ24" s="11">
-        <v>2773</v>
+        <v>2455</v>
       </c>
       <c r="BA24" s="11">
-        <v>2289</v>
+        <v>3109</v>
       </c>
       <c r="BB24" s="11">
-        <v>2455</v>
+        <v>3189</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
@@ -3008,124 +3006,124 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F25" s="13">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="G25" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H25" s="13">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="I25" s="13">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J25" s="13">
         <v>2</v>
       </c>
       <c r="K25" s="13">
+        <v>14</v>
+      </c>
+      <c r="L25" s="13">
+        <v>50</v>
+      </c>
+      <c r="M25" s="13">
+        <v>23</v>
+      </c>
+      <c r="N25" s="13">
         <v>37</v>
       </c>
-      <c r="L25" s="13">
+      <c r="O25" s="13">
+        <v>32</v>
+      </c>
+      <c r="P25" s="13">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>46</v>
+      </c>
+      <c r="R25" s="13">
+        <v>46</v>
+      </c>
+      <c r="S25" s="13">
+        <v>3</v>
+      </c>
+      <c r="T25" s="13">
+        <v>18</v>
+      </c>
+      <c r="U25" s="13">
+        <v>7</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>3</v>
+      </c>
+      <c r="X25" s="13">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>13</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>37</v>
+      </c>
+      <c r="AE25" s="13">
         <v>2</v>
       </c>
-      <c r="M25" s="13">
-        <v>14</v>
-      </c>
-      <c r="N25" s="13">
-        <v>50</v>
-      </c>
-      <c r="O25" s="13">
-        <v>23</v>
-      </c>
-      <c r="P25" s="13">
-        <v>37</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>32</v>
-      </c>
-      <c r="R25" s="13">
-        <v>20</v>
-      </c>
-      <c r="S25" s="13">
-        <v>46</v>
-      </c>
-      <c r="T25" s="13">
-        <v>46</v>
-      </c>
-      <c r="U25" s="13">
+      <c r="AF25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="13">
         <v>3</v>
-      </c>
-      <c r="V25" s="13">
-        <v>18</v>
-      </c>
-      <c r="W25" s="13">
-        <v>7</v>
-      </c>
-      <c r="X25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>13</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>13</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>11</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="13">
-        <v>3</v>
-      </c>
-      <c r="AF25" s="13">
-        <v>37</v>
-      </c>
-      <c r="AG25" s="13">
-        <v>2</v>
       </c>
       <c r="AH25" s="13">
         <v>2</v>
       </c>
       <c r="AI25" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="13">
         <v>2</v>
       </c>
-      <c r="AK25" s="13">
-        <v>0</v>
-      </c>
       <c r="AL25" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="13">
         <v>2</v>
       </c>
-      <c r="AN25" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO25" s="13">
+      <c r="AP25" s="13">
         <v>1</v>
       </c>
-      <c r="AP25" s="13">
-        <v>0</v>
-      </c>
       <c r="AQ25" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="13">
         <v>0</v>
@@ -3158,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3170,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>57</v>
+      <c r="I26" s="11">
+        <v>0</v>
       </c>
       <c r="J26" s="11">
         <v>0</v>
@@ -3208,11 +3206,11 @@
       <c r="R26" s="11">
         <v>0</v>
       </c>
-      <c r="S26" s="11">
-        <v>0</v>
-      </c>
-      <c r="T26" s="11">
-        <v>0</v>
+      <c r="S26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>57</v>
@@ -3317,7 +3315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3326,89 +3324,89 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>928</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="13">
-        <v>2205</v>
+        <v>3589</v>
       </c>
       <c r="G27" s="13">
-        <v>1330</v>
+        <v>824</v>
       </c>
       <c r="H27" s="13">
-        <v>3589</v>
+        <v>1916</v>
       </c>
       <c r="I27" s="13">
-        <v>824</v>
+        <v>2101</v>
       </c>
       <c r="J27" s="13">
-        <v>1916</v>
+        <v>239</v>
       </c>
       <c r="K27" s="13">
-        <v>2101</v>
+        <v>1132</v>
       </c>
       <c r="L27" s="13">
-        <v>239</v>
+        <v>2398</v>
       </c>
       <c r="M27" s="13">
-        <v>1132</v>
+        <v>831</v>
       </c>
       <c r="N27" s="13">
-        <v>2398</v>
+        <v>1736</v>
       </c>
       <c r="O27" s="13">
-        <v>831</v>
+        <v>2669</v>
       </c>
       <c r="P27" s="13">
-        <v>1736</v>
+        <v>1350</v>
       </c>
       <c r="Q27" s="13">
-        <v>2669</v>
+        <v>1575</v>
       </c>
       <c r="R27" s="13">
-        <v>1350</v>
+        <v>3408</v>
       </c>
       <c r="S27" s="13">
-        <v>1575</v>
+        <v>1914</v>
       </c>
       <c r="T27" s="13">
-        <v>3408</v>
+        <v>2428</v>
       </c>
       <c r="U27" s="13">
-        <v>1914</v>
+        <v>1831</v>
       </c>
       <c r="V27" s="13">
-        <v>2428</v>
+        <v>1833</v>
       </c>
       <c r="W27" s="13">
-        <v>1831</v>
+        <v>2661</v>
       </c>
       <c r="X27" s="13">
-        <v>1833</v>
+        <v>2806</v>
       </c>
       <c r="Y27" s="13">
-        <v>2661</v>
+        <v>2296</v>
       </c>
       <c r="Z27" s="13">
-        <v>2806</v>
+        <v>2598</v>
       </c>
       <c r="AA27" s="13">
-        <v>2296</v>
+        <v>2741</v>
       </c>
       <c r="AB27" s="13">
-        <v>2598</v>
+        <v>2271</v>
       </c>
       <c r="AC27" s="13">
-        <v>2741</v>
+        <v>2336</v>
       </c>
       <c r="AD27" s="13">
-        <v>2271</v>
-      </c>
-      <c r="AE27" s="13">
-        <v>2336</v>
-      </c>
-      <c r="AF27" s="13">
         <v>3447</v>
       </c>
+      <c r="AE27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG27" s="13" t="s">
         <v>57</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3533,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3617,11 +3615,11 @@
       <c r="AD29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF29" s="17" t="s">
-        <v>57</v>
+      <c r="AE29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>0</v>
       </c>
       <c r="AG29" s="17">
         <v>0</v>
@@ -3690,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3747,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3833,56 +3831,56 @@
       <c r="AD31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF31" s="11" t="s">
-        <v>57</v>
+      <c r="AE31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11">
+        <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AH31" s="11">
         <v>0</v>
       </c>
       <c r="AI31" s="11">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AK31" s="11">
         <v>0</v>
       </c>
       <c r="AL31" s="11">
+        <v>-33</v>
+      </c>
+      <c r="AM31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AS31" s="11">
         <v>-10</v>
       </c>
-      <c r="AM31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>-33</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="AT31" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="11">
         <v>0</v>
@@ -3891,22 +3889,22 @@
         <v>0</v>
       </c>
       <c r="AX31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="11" t="s">
-        <v>57</v>
+        <v>-6</v>
+      </c>
+      <c r="AY31" s="11">
+        <v>0</v>
       </c>
       <c r="AZ31" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="11">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="BB31" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
         <v>66</v>
       </c>
@@ -3990,56 +3988,56 @@
       <c r="AD32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AE32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF32" s="19" t="s">
-        <v>57</v>
+      <c r="AE32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="19">
+        <v>0</v>
       </c>
       <c r="AG32" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AH32" s="19">
         <v>0</v>
       </c>
       <c r="AI32" s="19">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AK32" s="19">
         <v>0</v>
       </c>
       <c r="AL32" s="19">
+        <v>-33</v>
+      </c>
+      <c r="AM32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AQ32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="AS32" s="19">
         <v>-10</v>
       </c>
-      <c r="AM32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="19">
-        <v>-33</v>
-      </c>
-      <c r="AO32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AS32" s="19">
-        <v>0</v>
-      </c>
       <c r="AT32" s="19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="19">
         <v>0</v>
@@ -4048,180 +4046,179 @@
         <v>0</v>
       </c>
       <c r="AX32" s="19">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AY32" s="19">
         <v>0</v>
       </c>
       <c r="AZ32" s="19">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="19">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="BB32" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>958</v>
+        <v>1336</v>
       </c>
       <c r="F33" s="17">
-        <v>2214</v>
+        <v>3687</v>
       </c>
       <c r="G33" s="17">
-        <v>1336</v>
+        <v>833</v>
       </c>
       <c r="H33" s="17">
-        <v>3687</v>
+        <v>1918</v>
       </c>
       <c r="I33" s="17">
-        <v>833</v>
+        <v>2138</v>
       </c>
       <c r="J33" s="17">
-        <v>1918</v>
+        <v>241</v>
       </c>
       <c r="K33" s="17">
-        <v>2138</v>
+        <v>1146</v>
       </c>
       <c r="L33" s="17">
-        <v>241</v>
+        <v>2448</v>
       </c>
       <c r="M33" s="17">
-        <v>1146</v>
+        <v>854</v>
       </c>
       <c r="N33" s="17">
-        <v>2448</v>
+        <v>1773</v>
       </c>
       <c r="O33" s="17">
-        <v>854</v>
+        <v>2701</v>
       </c>
       <c r="P33" s="17">
-        <v>1773</v>
+        <v>1370</v>
       </c>
       <c r="Q33" s="17">
-        <v>2701</v>
+        <v>1621</v>
       </c>
       <c r="R33" s="17">
-        <v>1370</v>
+        <v>3454</v>
       </c>
       <c r="S33" s="17">
-        <v>1621</v>
+        <v>1917</v>
       </c>
       <c r="T33" s="17">
-        <v>3454</v>
+        <v>2446</v>
       </c>
       <c r="U33" s="17">
-        <v>1917</v>
+        <v>1838</v>
       </c>
       <c r="V33" s="17">
-        <v>2446</v>
+        <v>1833</v>
       </c>
       <c r="W33" s="17">
-        <v>1838</v>
+        <v>2664</v>
       </c>
       <c r="X33" s="17">
-        <v>1833</v>
+        <v>2819</v>
       </c>
       <c r="Y33" s="17">
-        <v>2664</v>
+        <v>2309</v>
       </c>
       <c r="Z33" s="17">
-        <v>2819</v>
+        <v>2609</v>
       </c>
       <c r="AA33" s="17">
-        <v>2309</v>
+        <v>2749</v>
       </c>
       <c r="AB33" s="17">
-        <v>2609</v>
+        <v>2276</v>
       </c>
       <c r="AC33" s="17">
-        <v>2749</v>
+        <v>2339</v>
       </c>
       <c r="AD33" s="17">
-        <v>2276</v>
+        <v>3484</v>
       </c>
       <c r="AE33" s="17">
-        <v>2339</v>
+        <v>1932</v>
       </c>
       <c r="AF33" s="17">
-        <v>3484</v>
+        <v>2130</v>
       </c>
       <c r="AG33" s="17">
-        <v>1932</v>
+        <v>2458</v>
       </c>
       <c r="AH33" s="17">
-        <v>2130</v>
+        <v>2292</v>
       </c>
       <c r="AI33" s="17">
-        <v>2458</v>
+        <v>2742</v>
       </c>
       <c r="AJ33" s="17">
-        <v>2292</v>
+        <v>2882</v>
       </c>
       <c r="AK33" s="17">
-        <v>2742</v>
+        <v>1941</v>
       </c>
       <c r="AL33" s="17">
-        <v>2882</v>
+        <v>2463</v>
       </c>
       <c r="AM33" s="17">
-        <v>1941</v>
+        <v>2560</v>
       </c>
       <c r="AN33" s="17">
-        <v>2463</v>
+        <v>2112</v>
       </c>
       <c r="AO33" s="17">
-        <v>2560</v>
+        <v>2404</v>
       </c>
       <c r="AP33" s="17">
-        <v>2112</v>
+        <v>3771</v>
       </c>
       <c r="AQ33" s="17">
-        <v>2404</v>
+        <v>2245</v>
       </c>
       <c r="AR33" s="17">
-        <v>3771</v>
+        <v>2597</v>
       </c>
       <c r="AS33" s="17">
-        <v>2245</v>
+        <v>2564</v>
       </c>
       <c r="AT33" s="17">
-        <v>2597</v>
+        <v>2218</v>
       </c>
       <c r="AU33" s="17">
-        <v>2564</v>
+        <v>3052</v>
       </c>
       <c r="AV33" s="17">
-        <v>2218</v>
+        <v>3759</v>
       </c>
       <c r="AW33" s="17">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AX33" s="17">
-        <f>3758756/1000</f>
-        <v>3758.7559999999999</v>
+        <v>2772</v>
       </c>
       <c r="AY33" s="17">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AZ33" s="17">
-        <v>2766</v>
+        <v>2455</v>
       </c>
       <c r="BA33" s="17">
-        <v>2289</v>
+        <v>2926</v>
       </c>
       <c r="BB33" s="17">
-        <v>2455</v>
+        <v>3186</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4276,7 +4273,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4331,7 +4328,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4386,7 +4383,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
@@ -4543,7 +4540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4598,7 +4595,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
@@ -4655,7 +4652,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -4741,80 +4738,80 @@
       <c r="AD40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF40" s="11" t="s">
-        <v>57</v>
+      <c r="AE40" s="11">
+        <v>1191457</v>
+      </c>
+      <c r="AF40" s="11">
+        <v>1355871</v>
       </c>
       <c r="AG40" s="11">
-        <v>1191457</v>
+        <v>1592498</v>
       </c>
       <c r="AH40" s="11">
-        <v>1355871</v>
+        <v>1523931</v>
       </c>
       <c r="AI40" s="11">
-        <v>1592498</v>
+        <v>1819777</v>
       </c>
       <c r="AJ40" s="11">
-        <v>1523931</v>
+        <v>1892779</v>
       </c>
       <c r="AK40" s="11">
-        <v>1819777</v>
+        <v>1193279</v>
       </c>
       <c r="AL40" s="11">
-        <v>1892779</v>
+        <v>1695357</v>
       </c>
       <c r="AM40" s="11">
-        <v>1193279</v>
+        <v>1712597</v>
       </c>
       <c r="AN40" s="11">
-        <v>1695357</v>
+        <v>1392264</v>
       </c>
       <c r="AO40" s="11">
-        <v>1712597</v>
+        <v>1666609</v>
       </c>
       <c r="AP40" s="11">
-        <v>1392264</v>
+        <v>2406247</v>
       </c>
       <c r="AQ40" s="11">
-        <v>1666609</v>
+        <v>1528367</v>
       </c>
       <c r="AR40" s="11">
-        <v>2406247</v>
+        <v>1828344</v>
       </c>
       <c r="AS40" s="11">
-        <v>1528367</v>
+        <v>1741513</v>
       </c>
       <c r="AT40" s="11">
-        <v>1828344</v>
+        <v>1576722</v>
       </c>
       <c r="AU40" s="11">
-        <v>1741513</v>
+        <v>2200510</v>
       </c>
       <c r="AV40" s="11">
-        <v>1414660</v>
+        <v>3184013</v>
       </c>
       <c r="AW40" s="11">
-        <v>2144452</v>
+        <v>2011958</v>
       </c>
       <c r="AX40" s="11">
-        <v>3184013</v>
+        <v>2463859</v>
       </c>
       <c r="AY40" s="11">
-        <v>2011958</v>
+        <v>2101282</v>
       </c>
       <c r="AZ40" s="11">
-        <v>2463859</v>
+        <v>2264156</v>
       </c>
       <c r="BA40" s="11">
-        <v>2101282</v>
+        <v>2882483</v>
       </c>
       <c r="BB40" s="11">
-        <v>2264156</v>
+        <v>3015017</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -4823,124 +4820,124 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>2315</v>
+        <v>431</v>
       </c>
       <c r="F41" s="13">
-        <v>600</v>
+        <v>11766</v>
       </c>
       <c r="G41" s="13">
-        <v>431</v>
+        <v>1110</v>
       </c>
       <c r="H41" s="13">
-        <v>11766</v>
+        <v>222</v>
       </c>
       <c r="I41" s="13">
-        <v>1110</v>
+        <v>5615</v>
       </c>
       <c r="J41" s="13">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="K41" s="13">
-        <v>5615</v>
+        <v>2063</v>
       </c>
       <c r="L41" s="13">
-        <v>272</v>
+        <v>7339</v>
       </c>
       <c r="M41" s="13">
-        <v>2063</v>
+        <v>3844</v>
       </c>
       <c r="N41" s="13">
-        <v>7339</v>
+        <v>6092</v>
       </c>
       <c r="O41" s="13">
-        <v>3844</v>
+        <v>5244</v>
       </c>
       <c r="P41" s="13">
-        <v>6092</v>
+        <v>3286</v>
       </c>
       <c r="Q41" s="13">
-        <v>5244</v>
+        <v>8054</v>
       </c>
       <c r="R41" s="13">
-        <v>3286</v>
+        <v>7895</v>
       </c>
       <c r="S41" s="13">
-        <v>8054</v>
+        <v>513</v>
       </c>
       <c r="T41" s="13">
-        <v>7895</v>
+        <v>3569</v>
       </c>
       <c r="U41" s="13">
-        <v>513</v>
+        <v>1589</v>
       </c>
       <c r="V41" s="13">
-        <v>3569</v>
+        <v>15</v>
       </c>
       <c r="W41" s="13">
-        <v>1589</v>
+        <v>685</v>
       </c>
       <c r="X41" s="13">
-        <v>15</v>
+        <v>2706</v>
       </c>
       <c r="Y41" s="13">
-        <v>685</v>
+        <v>3323</v>
       </c>
       <c r="Z41" s="13">
-        <v>2706</v>
+        <v>2970</v>
       </c>
       <c r="AA41" s="13">
-        <v>3323</v>
+        <v>2539</v>
       </c>
       <c r="AB41" s="13">
-        <v>2970</v>
+        <v>1695</v>
       </c>
       <c r="AC41" s="13">
-        <v>2539</v>
+        <v>615</v>
       </c>
       <c r="AD41" s="13">
-        <v>1695</v>
+        <v>17649</v>
       </c>
       <c r="AE41" s="13">
-        <v>615</v>
+        <v>1141</v>
       </c>
       <c r="AF41" s="13">
-        <v>17649</v>
+        <v>619</v>
       </c>
       <c r="AG41" s="13">
-        <v>1141</v>
+        <v>1458</v>
       </c>
       <c r="AH41" s="13">
-        <v>619</v>
+        <v>762</v>
       </c>
       <c r="AI41" s="13">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="13">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AL41" s="13">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="AM41" s="13">
-        <v>852</v>
+        <v>448</v>
       </c>
       <c r="AN41" s="13">
-        <v>883</v>
+        <v>217</v>
       </c>
       <c r="AO41" s="13">
-        <v>448</v>
+        <v>1009</v>
       </c>
       <c r="AP41" s="13">
-        <v>217</v>
+        <v>583</v>
       </c>
       <c r="AQ41" s="13">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="13">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="13">
         <v>0</v>
@@ -4955,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="AW41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="13">
         <v>0</v>
       </c>
       <c r="AY41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13">
         <v>0</v>
@@ -4973,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -4985,19 +4982,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="11">
-        <v>114</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0</v>
       </c>
       <c r="J42" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K42" s="11">
         <v>0</v>
@@ -5023,11 +5020,11 @@
       <c r="R42" s="11">
         <v>0</v>
       </c>
-      <c r="S42" s="11">
-        <v>0</v>
-      </c>
-      <c r="T42" s="11">
-        <v>0</v>
+      <c r="S42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U42" s="11" t="s">
         <v>57</v>
@@ -5132,7 +5129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5141,89 +5138,89 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>143340</v>
+        <v>221060</v>
       </c>
       <c r="F43" s="13">
-        <v>340192</v>
+        <v>645714</v>
       </c>
       <c r="G43" s="13">
-        <v>221060</v>
+        <v>123766</v>
       </c>
       <c r="H43" s="13">
-        <v>645714</v>
+        <v>371478</v>
       </c>
       <c r="I43" s="13">
-        <v>123766</v>
+        <v>410796</v>
       </c>
       <c r="J43" s="13">
-        <v>371478</v>
+        <v>44938</v>
       </c>
       <c r="K43" s="13">
-        <v>410796</v>
+        <v>234521</v>
       </c>
       <c r="L43" s="13">
-        <v>44938</v>
+        <v>484029</v>
       </c>
       <c r="M43" s="13">
-        <v>234521</v>
+        <v>174519</v>
       </c>
       <c r="N43" s="13">
-        <v>484029</v>
+        <v>407145</v>
       </c>
       <c r="O43" s="13">
-        <v>174519</v>
+        <v>692900</v>
       </c>
       <c r="P43" s="13">
-        <v>407145</v>
+        <v>346214</v>
       </c>
       <c r="Q43" s="13">
-        <v>692900</v>
+        <v>369645</v>
       </c>
       <c r="R43" s="13">
-        <v>346214</v>
+        <v>843042</v>
       </c>
       <c r="S43" s="13">
-        <v>369645</v>
+        <v>496206</v>
       </c>
       <c r="T43" s="13">
-        <v>843042</v>
+        <v>644252</v>
       </c>
       <c r="U43" s="13">
-        <v>496206</v>
+        <v>492123</v>
       </c>
       <c r="V43" s="13">
-        <v>644252</v>
+        <v>479085</v>
       </c>
       <c r="W43" s="13">
-        <v>492123</v>
+        <v>713186</v>
       </c>
       <c r="X43" s="13">
-        <v>479085</v>
+        <v>756541</v>
       </c>
       <c r="Y43" s="13">
-        <v>713186</v>
+        <v>784741</v>
       </c>
       <c r="Z43" s="13">
-        <v>756541</v>
+        <v>935129</v>
       </c>
       <c r="AA43" s="13">
-        <v>784741</v>
+        <v>1107966</v>
       </c>
       <c r="AB43" s="13">
-        <v>935129</v>
+        <v>956995</v>
       </c>
       <c r="AC43" s="13">
-        <v>1107966</v>
+        <v>1014561</v>
       </c>
       <c r="AD43" s="13">
-        <v>956995</v>
-      </c>
-      <c r="AE43" s="13">
-        <v>1014561</v>
-      </c>
-      <c r="AF43" s="13">
         <v>2319677</v>
       </c>
+      <c r="AE43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AG43" s="13" t="s">
         <v>57</v>
       </c>
@@ -5291,7 +5288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>69</v>
       </c>
@@ -5348,7 +5345,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
@@ -5434,11 +5431,11 @@
       <c r="AD45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AE45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF45" s="17" t="s">
-        <v>57</v>
+      <c r="AE45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="17">
+        <v>0</v>
       </c>
       <c r="AG45" s="17">
         <v>0</v>
@@ -5507,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>70</v>
       </c>
@@ -5564,7 +5561,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5650,80 +5647,80 @@
       <c r="AD47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF47" s="11" t="s">
-        <v>57</v>
+      <c r="AE47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>-78</v>
       </c>
       <c r="AG47" s="11">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AH47" s="11">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AI47" s="11">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AJ47" s="11">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AK47" s="11">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AL47" s="11">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AM47" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="11">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AO47" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AP47" s="11">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AQ47" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AR47" s="11">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AS47" s="11">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AT47" s="11">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="11">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AW47" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AX47" s="11">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AY47" s="11">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AZ47" s="11">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="BA47" s="11">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="BB47" s="11">
-        <v>0</v>
+        <v>-3622</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
@@ -5809,80 +5806,80 @@
       <c r="AD48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AE48" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF48" s="19" t="s">
-        <v>57</v>
+      <c r="AE48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="19">
+        <v>-78</v>
       </c>
       <c r="AG48" s="19">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AH48" s="19">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AI48" s="19">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AJ48" s="19">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AK48" s="19">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AL48" s="19">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AM48" s="19">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="19">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AO48" s="19">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AP48" s="19">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AQ48" s="19">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AR48" s="19">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AS48" s="19">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AT48" s="19">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="19">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="19">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AW48" s="19">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AX48" s="19">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AY48" s="19">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AZ48" s="19">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="19">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="BB48" s="19">
-        <v>0</v>
+        <v>-3622</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -5939,7 +5936,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>72</v>
       </c>
@@ -6025,237 +6022,237 @@
       <c r="AD50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF50" s="11" t="s">
-        <v>57</v>
+      <c r="AE50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <v>-109</v>
       </c>
       <c r="AG50" s="11">
         <v>0</v>
       </c>
       <c r="AH50" s="11">
-        <v>-109</v>
+        <v>-108</v>
       </c>
       <c r="AI50" s="11">
         <v>0</v>
       </c>
       <c r="AJ50" s="11">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="11">
         <v>0</v>
       </c>
       <c r="AL50" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM50" s="11">
         <v>0</v>
       </c>
       <c r="AN50" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="11">
         <v>0</v>
       </c>
       <c r="AP50" s="11">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AQ50" s="11">
         <v>0</v>
       </c>
       <c r="AR50" s="11">
-        <v>-218</v>
+        <v>-38</v>
       </c>
       <c r="AS50" s="11">
         <v>0</v>
       </c>
       <c r="AT50" s="11">
-        <v>-38</v>
+        <v>-148</v>
       </c>
       <c r="AU50" s="11">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AV50" s="11">
-        <v>-20</v>
+        <v>-2552</v>
       </c>
       <c r="AW50" s="11">
-        <v>-981</v>
+        <v>-663</v>
       </c>
       <c r="AX50" s="11">
-        <v>-2552</v>
+        <v>-747</v>
       </c>
       <c r="AY50" s="11">
-        <v>-663</v>
+        <v>-664</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-747</v>
+        <v>-2136</v>
       </c>
       <c r="BA50" s="11">
-        <v>-664</v>
+        <v>-2432</v>
       </c>
       <c r="BB50" s="11">
-        <v>-2136</v>
+        <v>-4470</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19">
-        <v>145655</v>
+        <v>221491</v>
       </c>
       <c r="F51" s="19">
-        <v>340906</v>
+        <v>657480</v>
       </c>
       <c r="G51" s="19">
-        <v>221491</v>
+        <v>124876</v>
       </c>
       <c r="H51" s="19">
-        <v>657480</v>
+        <v>371735</v>
       </c>
       <c r="I51" s="19">
-        <v>124876</v>
+        <v>416411</v>
       </c>
       <c r="J51" s="19">
-        <v>371735</v>
+        <v>45210</v>
       </c>
       <c r="K51" s="19">
-        <v>416411</v>
+        <v>236584</v>
       </c>
       <c r="L51" s="19">
-        <v>45210</v>
+        <v>491368</v>
       </c>
       <c r="M51" s="19">
-        <v>236584</v>
+        <v>178363</v>
       </c>
       <c r="N51" s="19">
-        <v>491368</v>
+        <v>413237</v>
       </c>
       <c r="O51" s="19">
-        <v>178363</v>
+        <v>698144</v>
       </c>
       <c r="P51" s="19">
-        <v>413237</v>
+        <v>349500</v>
       </c>
       <c r="Q51" s="19">
-        <v>698144</v>
+        <v>377699</v>
       </c>
       <c r="R51" s="19">
-        <v>349500</v>
+        <v>850937</v>
       </c>
       <c r="S51" s="19">
-        <v>377699</v>
+        <v>496719</v>
       </c>
       <c r="T51" s="19">
-        <v>850937</v>
+        <v>647821</v>
       </c>
       <c r="U51" s="19">
-        <v>496719</v>
+        <v>493712</v>
       </c>
       <c r="V51" s="19">
-        <v>647821</v>
+        <v>479100</v>
       </c>
       <c r="W51" s="19">
-        <v>493712</v>
+        <v>713871</v>
       </c>
       <c r="X51" s="19">
-        <v>479100</v>
+        <v>759247</v>
       </c>
       <c r="Y51" s="19">
-        <v>713871</v>
+        <v>788064</v>
       </c>
       <c r="Z51" s="19">
-        <v>759247</v>
+        <v>938099</v>
       </c>
       <c r="AA51" s="19">
-        <v>788064</v>
+        <v>1110505</v>
       </c>
       <c r="AB51" s="19">
-        <v>938099</v>
+        <v>958690</v>
       </c>
       <c r="AC51" s="19">
-        <v>1110505</v>
+        <v>1015176</v>
       </c>
       <c r="AD51" s="19">
-        <v>958690</v>
+        <v>2337326</v>
       </c>
       <c r="AE51" s="19">
-        <v>1015176</v>
+        <v>1192598</v>
       </c>
       <c r="AF51" s="19">
-        <v>2337326</v>
+        <v>1356303</v>
       </c>
       <c r="AG51" s="19">
-        <v>1192598</v>
+        <v>1588905</v>
       </c>
       <c r="AH51" s="19">
-        <v>1356303</v>
+        <v>1524495</v>
       </c>
       <c r="AI51" s="19">
-        <v>1588905</v>
+        <v>1819773</v>
       </c>
       <c r="AJ51" s="19">
-        <v>1524495</v>
+        <v>1886142</v>
       </c>
       <c r="AK51" s="19">
-        <v>1819773</v>
+        <v>1194107</v>
       </c>
       <c r="AL51" s="19">
-        <v>1886142</v>
+        <v>1668037</v>
       </c>
       <c r="AM51" s="19">
-        <v>1194107</v>
+        <v>1713045</v>
       </c>
       <c r="AN51" s="19">
-        <v>1668037</v>
+        <v>1392444</v>
       </c>
       <c r="AO51" s="19">
-        <v>1713045</v>
+        <v>1667610</v>
       </c>
       <c r="AP51" s="19">
-        <v>1392444</v>
+        <v>2404975</v>
       </c>
       <c r="AQ51" s="19">
-        <v>1667610</v>
+        <v>1528367</v>
       </c>
       <c r="AR51" s="19">
-        <v>2404975</v>
+        <v>1827712</v>
       </c>
       <c r="AS51" s="19">
-        <v>1528367</v>
+        <v>1731029</v>
       </c>
       <c r="AT51" s="19">
-        <v>1827712</v>
+        <v>1576574</v>
       </c>
       <c r="AU51" s="19">
-        <v>1731029</v>
+        <v>2199518</v>
       </c>
       <c r="AV51" s="19">
-        <v>1414640</v>
+        <v>3181426</v>
       </c>
       <c r="AW51" s="19">
-        <v>2143471</v>
+        <v>2011282</v>
       </c>
       <c r="AX51" s="19">
-        <v>3181426</v>
+        <v>2455978</v>
       </c>
       <c r="AY51" s="19">
-        <v>2011282</v>
+        <v>2100580</v>
       </c>
       <c r="AZ51" s="19">
-        <v>2455978</v>
+        <v>2262020</v>
       </c>
       <c r="BA51" s="19">
-        <v>2100580</v>
+        <v>2731215</v>
       </c>
       <c r="BB51" s="19">
-        <v>2262020</v>
+        <v>3006925</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6310,7 +6307,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6365,7 +6362,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6420,7 +6417,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6632,7 +6629,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>74</v>
       </c>
@@ -6689,7 +6686,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -6775,80 +6772,80 @@
       <c r="AD58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AE58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF58" s="11" t="s">
-        <v>57</v>
+      <c r="AE58" s="11">
+        <v>617335233</v>
+      </c>
+      <c r="AF58" s="11">
+        <v>637135568</v>
       </c>
       <c r="AG58" s="11">
-        <v>617335233</v>
+        <v>644355941</v>
       </c>
       <c r="AH58" s="11">
-        <v>637135568</v>
+        <v>665452873</v>
       </c>
       <c r="AI58" s="11">
-        <v>644355941</v>
+        <v>663560071</v>
       </c>
       <c r="AJ58" s="11">
-        <v>665452873</v>
+        <v>654401911</v>
       </c>
       <c r="AK58" s="11">
-        <v>663560071</v>
+        <v>615457101</v>
       </c>
       <c r="AL58" s="11">
-        <v>654401911</v>
+        <v>679847858</v>
       </c>
       <c r="AM58" s="11">
-        <v>615457101</v>
+        <v>669182651</v>
       </c>
       <c r="AN58" s="11">
-        <v>679847858</v>
+        <v>659472579</v>
       </c>
       <c r="AO58" s="11">
-        <v>669182651</v>
+        <v>693923972</v>
       </c>
       <c r="AP58" s="11">
-        <v>659472579</v>
+        <v>637923383</v>
       </c>
       <c r="AQ58" s="11">
-        <v>693923972</v>
+        <v>680746450</v>
       </c>
       <c r="AR58" s="11">
-        <v>637923383</v>
+        <v>703885502</v>
       </c>
       <c r="AS58" s="11">
-        <v>680746450</v>
+        <v>676554367</v>
       </c>
       <c r="AT58" s="11">
-        <v>703885502</v>
+        <v>654541025</v>
       </c>
       <c r="AU58" s="11">
-        <v>676562706</v>
+        <v>706971787</v>
       </c>
       <c r="AV58" s="11">
-        <v>637722868</v>
+        <v>730881971</v>
       </c>
       <c r="AW58" s="11">
-        <v>702554939</v>
+        <v>833323186</v>
       </c>
       <c r="AX58" s="11">
-        <v>847092</v>
+        <v>888465095</v>
       </c>
       <c r="AY58" s="11">
-        <v>833323186</v>
+        <v>918136431</v>
       </c>
       <c r="AZ58" s="11">
-        <v>888672920</v>
+        <v>922409670</v>
       </c>
       <c r="BA58" s="11">
-        <v>918136464</v>
+        <v>927171347</v>
       </c>
       <c r="BB58" s="11">
-        <v>922409670</v>
+        <v>945439807</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
@@ -6857,125 +6854,125 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>77166667</v>
+        <v>71833333</v>
       </c>
       <c r="F59" s="13">
-        <v>75000000</v>
+        <v>120061224</v>
       </c>
       <c r="G59" s="13">
-        <v>71833333</v>
+        <v>123333333</v>
       </c>
       <c r="H59" s="13">
-        <v>120061224</v>
+        <v>111000000</v>
       </c>
       <c r="I59" s="13">
-        <v>123333333</v>
+        <v>151756757</v>
       </c>
       <c r="J59" s="13">
-        <v>111000000</v>
+        <v>136000000</v>
       </c>
       <c r="K59" s="13">
-        <v>151756757</v>
+        <v>147357143</v>
       </c>
       <c r="L59" s="13">
-        <v>136000000</v>
+        <v>146780000</v>
       </c>
       <c r="M59" s="13">
-        <v>147357143</v>
+        <v>167130435</v>
       </c>
       <c r="N59" s="13">
-        <v>146780000</v>
+        <v>164648649</v>
       </c>
       <c r="O59" s="13">
-        <v>167130435</v>
+        <v>163875000</v>
       </c>
       <c r="P59" s="13">
-        <v>164648649</v>
+        <v>164300000</v>
       </c>
       <c r="Q59" s="13">
-        <v>163875000</v>
+        <v>175086957</v>
       </c>
       <c r="R59" s="13">
-        <v>164300000</v>
+        <v>171630435</v>
       </c>
       <c r="S59" s="13">
-        <v>175086957</v>
+        <v>171000000</v>
       </c>
       <c r="T59" s="13">
-        <v>171630435</v>
+        <v>198277778</v>
       </c>
       <c r="U59" s="13">
-        <v>171000000</v>
+        <v>227000000</v>
       </c>
       <c r="V59" s="13">
-        <v>198277778</v>
+        <v>0</v>
       </c>
       <c r="W59" s="13">
-        <v>227000000</v>
+        <v>228333333</v>
       </c>
       <c r="X59" s="13">
-        <v>0</v>
+        <v>208153846</v>
       </c>
       <c r="Y59" s="13">
-        <v>228333333</v>
+        <v>255615385</v>
       </c>
       <c r="Z59" s="13">
-        <v>208153846</v>
+        <v>270000000</v>
       </c>
       <c r="AA59" s="13">
-        <v>255615385</v>
+        <v>317375000</v>
       </c>
       <c r="AB59" s="13">
-        <v>270000000</v>
+        <v>339000000</v>
       </c>
       <c r="AC59" s="13">
-        <v>317375000</v>
+        <v>205000000</v>
       </c>
       <c r="AD59" s="13">
-        <v>339000000</v>
+        <v>477000000</v>
       </c>
       <c r="AE59" s="13">
-        <v>205000000</v>
+        <v>570500000</v>
       </c>
       <c r="AF59" s="13">
-        <v>477000000</v>
+        <v>353512279</v>
       </c>
       <c r="AG59" s="13">
-        <v>570500000</v>
+        <v>453358209</v>
       </c>
       <c r="AH59" s="13">
-        <v>353512279</v>
-      </c>
-      <c r="AI59" s="13">
-        <v>453358209</v>
-      </c>
-      <c r="AJ59" s="13">
         <v>473586078</v>
       </c>
-      <c r="AK59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL59" s="13" t="s">
-        <v>57</v>
+      <c r="AI59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK59" s="13">
+        <v>474123539</v>
+      </c>
+      <c r="AL59" s="13">
+        <v>472192513</v>
       </c>
       <c r="AM59" s="13">
-        <v>474123539</v>
+        <v>472573840</v>
       </c>
       <c r="AN59" s="13">
-        <v>472192513</v>
+        <v>474835886</v>
       </c>
       <c r="AO59" s="13">
-        <v>472573840</v>
+        <v>473486626</v>
       </c>
       <c r="AP59" s="13">
-        <v>474835886</v>
-      </c>
-      <c r="AQ59" s="13">
-        <v>473486626</v>
-      </c>
-      <c r="AR59" s="13">
         <v>473983740</v>
       </c>
+      <c r="AQ59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR59" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS59" s="13" t="s">
         <v>57</v>
       </c>
@@ -6988,14 +6985,14 @@
       <c r="AV59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX59" s="13" t="s">
-        <v>57</v>
+      <c r="AW59" s="13">
+        <v>500000000</v>
+      </c>
+      <c r="AX59" s="13">
+        <v>0</v>
       </c>
       <c r="AY59" s="13">
-        <v>500000000</v>
+        <v>-500000000</v>
       </c>
       <c r="AZ59" s="13" t="s">
         <v>57</v>
@@ -7007,7 +7004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7019,16 +7016,16 @@
         <v>0</v>
       </c>
       <c r="F60" s="11">
-        <v>114000000</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
       </c>
-      <c r="I60" s="11" t="s">
-        <v>57</v>
+      <c r="I60" s="11">
+        <v>0</v>
       </c>
       <c r="J60" s="11">
         <v>0</v>
@@ -7057,11 +7054,11 @@
       <c r="R60" s="11">
         <v>0</v>
       </c>
-      <c r="S60" s="11">
-        <v>0</v>
-      </c>
-      <c r="T60" s="11">
-        <v>0</v>
+      <c r="S60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="T60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="U60" s="11" t="s">
         <v>57</v>
@@ -7166,7 +7163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
@@ -7175,88 +7172,88 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>154461207</v>
+        <v>166210526</v>
       </c>
       <c r="F61" s="13">
-        <v>154282086</v>
+        <v>179914739</v>
       </c>
       <c r="G61" s="13">
-        <v>166210526</v>
+        <v>150201456</v>
       </c>
       <c r="H61" s="13">
-        <v>179914739</v>
+        <v>193882046</v>
       </c>
       <c r="I61" s="13">
-        <v>150201456</v>
+        <v>195524036</v>
       </c>
       <c r="J61" s="13">
-        <v>193882046</v>
+        <v>188025105</v>
       </c>
       <c r="K61" s="13">
-        <v>195524036</v>
+        <v>207174028</v>
       </c>
       <c r="L61" s="13">
-        <v>188025105</v>
+        <v>201846956</v>
       </c>
       <c r="M61" s="13">
-        <v>207174028</v>
+        <v>210010830</v>
       </c>
       <c r="N61" s="13">
-        <v>201846956</v>
+        <v>234530530</v>
       </c>
       <c r="O61" s="13">
-        <v>210010830</v>
+        <v>259610341</v>
       </c>
       <c r="P61" s="13">
-        <v>234530530</v>
+        <v>256454815</v>
       </c>
       <c r="Q61" s="13">
-        <v>259610341</v>
+        <v>234695238</v>
       </c>
       <c r="R61" s="13">
-        <v>256454815</v>
+        <v>247371479</v>
       </c>
       <c r="S61" s="13">
-        <v>234695238</v>
+        <v>259250784</v>
       </c>
       <c r="T61" s="13">
-        <v>247371479</v>
+        <v>265342669</v>
       </c>
       <c r="U61" s="13">
-        <v>259250784</v>
+        <v>268772802</v>
       </c>
       <c r="V61" s="13">
-        <v>265342669</v>
+        <v>261366612</v>
       </c>
       <c r="W61" s="13">
-        <v>268772802</v>
+        <v>268014280</v>
       </c>
       <c r="X61" s="13">
-        <v>261366612</v>
+        <v>269615467</v>
       </c>
       <c r="Y61" s="13">
-        <v>268014280</v>
+        <v>341786150</v>
       </c>
       <c r="Z61" s="13">
-        <v>269615467</v>
+        <v>359941878</v>
       </c>
       <c r="AA61" s="13">
-        <v>341786150</v>
+        <v>404219628</v>
       </c>
       <c r="AB61" s="13">
-        <v>359941878</v>
+        <v>421398063</v>
       </c>
       <c r="AC61" s="13">
-        <v>404219628</v>
+        <v>434315497</v>
       </c>
       <c r="AD61" s="13">
-        <v>421398063</v>
-      </c>
-      <c r="AE61" s="13">
-        <v>434315497</v>
-      </c>
-      <c r="AF61" s="13">
         <v>672955323</v>
+      </c>
+      <c r="AE61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AG61" s="13" t="s">
         <v>57</v>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E137F6-4D0F-4AD4-BBAD-523F2A1D5501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B4BFC9-0F7B-44CD-A888-8E16E080D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="76">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکویر-کویر تایر</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 1 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>تایر</t>
@@ -730,12 +730,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -790,7 +790,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -959,7 +959,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1128,7 +1128,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1340,7 +1340,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1477,86 +1477,86 @@
       <c r="AB11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>57</v>
+      <c r="AC11" s="11">
+        <v>2412</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>2286</v>
       </c>
       <c r="AE11" s="11">
-        <v>2412</v>
+        <v>2531</v>
       </c>
       <c r="AF11" s="11">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AG11" s="11">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AH11" s="11">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AI11" s="11">
-        <v>2768</v>
+        <v>2573</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AK11" s="11">
-        <v>2573</v>
+        <v>2343</v>
       </c>
       <c r="AL11" s="11">
-        <v>2495</v>
+        <v>2157</v>
       </c>
       <c r="AM11" s="11">
-        <v>2343</v>
+        <v>2742</v>
       </c>
       <c r="AN11" s="11">
-        <v>2157</v>
+        <v>2754</v>
       </c>
       <c r="AO11" s="11">
-        <v>2742</v>
+        <v>2841</v>
       </c>
       <c r="AP11" s="11">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AQ11" s="11">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AR11" s="11">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AS11" s="11">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AT11" s="11">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AU11" s="11">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AV11" s="11">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AW11" s="11">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AX11" s="11">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="AY11" s="11">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2656</v>
+        <v>2700</v>
       </c>
       <c r="BA11" s="11">
-        <v>2696</v>
+        <v>2665</v>
       </c>
       <c r="BB11" s="11">
-        <v>2700</v>
+        <v>2926</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1565,115 +1565,115 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G12" s="13">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="13">
+        <v>9</v>
+      </c>
+      <c r="I12" s="13">
+        <v>28</v>
+      </c>
+      <c r="J12" s="13">
+        <v>35</v>
+      </c>
+      <c r="K12" s="13">
+        <v>23</v>
+      </c>
+      <c r="L12" s="13">
+        <v>26</v>
+      </c>
+      <c r="M12" s="13">
         <v>24</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
+        <v>35</v>
+      </c>
+      <c r="O12" s="13">
         <v>31</v>
       </c>
-      <c r="J12" s="13">
+      <c r="P12" s="13">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>22</v>
+      </c>
+      <c r="R12" s="13">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13">
+        <v>11</v>
+      </c>
+      <c r="T12" s="13">
+        <v>5</v>
+      </c>
+      <c r="U12" s="13">
+        <v>5</v>
+      </c>
+      <c r="V12" s="13">
+        <v>15</v>
+      </c>
+      <c r="W12" s="13">
         <v>9</v>
       </c>
-      <c r="K12" s="13">
-        <v>28</v>
-      </c>
-      <c r="L12" s="13">
-        <v>35</v>
-      </c>
-      <c r="M12" s="13">
-        <v>23</v>
-      </c>
-      <c r="N12" s="13">
-        <v>26</v>
-      </c>
-      <c r="O12" s="13">
-        <v>24</v>
-      </c>
-      <c r="P12" s="13">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>31</v>
-      </c>
-      <c r="R12" s="13">
-        <v>19</v>
-      </c>
-      <c r="S12" s="13">
-        <v>22</v>
-      </c>
-      <c r="T12" s="13">
+      <c r="X12" s="13">
         <v>10</v>
       </c>
-      <c r="U12" s="13">
+      <c r="Y12" s="13">
         <v>11</v>
       </c>
-      <c r="V12" s="13">
-        <v>5</v>
-      </c>
-      <c r="W12" s="13">
-        <v>5</v>
-      </c>
-      <c r="X12" s="13">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="13">
+      <c r="Z12" s="13">
         <v>9</v>
       </c>
-      <c r="Z12" s="13">
-        <v>10</v>
-      </c>
       <c r="AA12" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="13">
         <v>11</v>
       </c>
-      <c r="AB12" s="13">
-        <v>9</v>
-      </c>
       <c r="AC12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
         <v>3</v>
       </c>
-      <c r="AD12" s="13">
-        <v>11</v>
-      </c>
-      <c r="AE12" s="13">
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="13">
         <v>1</v>
       </c>
-      <c r="AF12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>3</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>0</v>
-      </c>
       <c r="AN12" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="13">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1723,14 +1723,14 @@
         <v>56</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>57</v>
+      <c r="G13" s="11">
+        <v>0</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
@@ -1759,11 +1759,11 @@
       <c r="P13" s="11">
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <v>0</v>
-      </c>
-      <c r="R13" s="11">
-        <v>0</v>
+      <c r="Q13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>57</v>
@@ -1874,7 +1874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1883,83 +1883,83 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1955</v>
+        <v>1610</v>
       </c>
       <c r="F14" s="13">
-        <v>2036</v>
+        <v>1789</v>
       </c>
       <c r="G14" s="13">
-        <v>1610</v>
+        <v>1909</v>
       </c>
       <c r="H14" s="13">
-        <v>1789</v>
+        <v>426</v>
       </c>
       <c r="I14" s="13">
-        <v>1909</v>
+        <v>1238</v>
       </c>
       <c r="J14" s="13">
-        <v>426</v>
+        <v>2054</v>
       </c>
       <c r="K14" s="13">
-        <v>1238</v>
+        <v>1374</v>
       </c>
       <c r="L14" s="13">
-        <v>2054</v>
+        <v>2286</v>
       </c>
       <c r="M14" s="13">
-        <v>1374</v>
+        <v>2350</v>
       </c>
       <c r="N14" s="13">
-        <v>2286</v>
+        <v>1356</v>
       </c>
       <c r="O14" s="13">
-        <v>2350</v>
+        <v>1845</v>
       </c>
       <c r="P14" s="13">
-        <v>1356</v>
+        <v>2520</v>
       </c>
       <c r="Q14" s="13">
-        <v>1845</v>
+        <v>2445</v>
       </c>
       <c r="R14" s="13">
-        <v>2520</v>
+        <v>2525</v>
       </c>
       <c r="S14" s="13">
-        <v>2445</v>
+        <v>1919</v>
       </c>
       <c r="T14" s="13">
-        <v>2525</v>
+        <v>2022</v>
       </c>
       <c r="U14" s="13">
-        <v>1919</v>
+        <v>2541</v>
       </c>
       <c r="V14" s="13">
-        <v>2022</v>
+        <v>2676</v>
       </c>
       <c r="W14" s="13">
-        <v>2541</v>
+        <v>2491</v>
       </c>
       <c r="X14" s="13">
-        <v>2676</v>
+        <v>2580</v>
       </c>
       <c r="Y14" s="13">
-        <v>2491</v>
+        <v>2623</v>
       </c>
       <c r="Z14" s="13">
-        <v>2580</v>
+        <v>2517</v>
       </c>
       <c r="AA14" s="13">
-        <v>2623</v>
+        <v>2498</v>
       </c>
       <c r="AB14" s="13">
-        <v>2517</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>2498</v>
-      </c>
-      <c r="AD14" s="13">
         <v>2576</v>
       </c>
+      <c r="AC14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="BA15" s="15"/>
       <c r="BB15" s="15"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2168,11 +2168,11 @@
       <c r="AB16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC16" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD16" s="17" t="s">
-        <v>57</v>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0</v>
       </c>
       <c r="AE16" s="17">
         <v>0</v>
@@ -2247,164 +2247,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <v>1993</v>
+        <v>1639</v>
       </c>
       <c r="F17" s="19">
-        <v>2084</v>
+        <v>1813</v>
       </c>
       <c r="G17" s="19">
-        <v>1639</v>
+        <v>1940</v>
       </c>
       <c r="H17" s="19">
-        <v>1813</v>
+        <v>435</v>
       </c>
       <c r="I17" s="19">
-        <v>1940</v>
+        <v>1266</v>
       </c>
       <c r="J17" s="19">
-        <v>435</v>
+        <v>2089</v>
       </c>
       <c r="K17" s="19">
-        <v>1266</v>
+        <v>1397</v>
       </c>
       <c r="L17" s="19">
-        <v>2089</v>
+        <v>2312</v>
       </c>
       <c r="M17" s="19">
-        <v>1397</v>
+        <v>2374</v>
       </c>
       <c r="N17" s="19">
-        <v>2312</v>
+        <v>1391</v>
       </c>
       <c r="O17" s="19">
-        <v>2374</v>
+        <v>1876</v>
       </c>
       <c r="P17" s="19">
-        <v>1391</v>
+        <v>2539</v>
       </c>
       <c r="Q17" s="19">
-        <v>1876</v>
+        <v>2467</v>
       </c>
       <c r="R17" s="19">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="S17" s="19">
-        <v>2467</v>
+        <v>1930</v>
       </c>
       <c r="T17" s="19">
-        <v>2535</v>
+        <v>2027</v>
       </c>
       <c r="U17" s="19">
-        <v>1930</v>
+        <v>2546</v>
       </c>
       <c r="V17" s="19">
-        <v>2027</v>
+        <v>2691</v>
       </c>
       <c r="W17" s="19">
-        <v>2546</v>
+        <v>2500</v>
       </c>
       <c r="X17" s="19">
-        <v>2691</v>
+        <v>2590</v>
       </c>
       <c r="Y17" s="19">
-        <v>2500</v>
+        <v>2634</v>
       </c>
       <c r="Z17" s="19">
-        <v>2590</v>
+        <v>2526</v>
       </c>
       <c r="AA17" s="19">
-        <v>2634</v>
+        <v>2501</v>
       </c>
       <c r="AB17" s="19">
-        <v>2526</v>
+        <v>2587</v>
       </c>
       <c r="AC17" s="19">
-        <v>2501</v>
+        <v>2413</v>
       </c>
       <c r="AD17" s="19">
-        <v>2587</v>
+        <v>2286</v>
       </c>
       <c r="AE17" s="19">
-        <v>2413</v>
+        <v>2531</v>
       </c>
       <c r="AF17" s="19">
-        <v>2286</v>
+        <v>2673</v>
       </c>
       <c r="AG17" s="19">
-        <v>2531</v>
+        <v>2768</v>
       </c>
       <c r="AH17" s="19">
-        <v>2673</v>
+        <v>1862</v>
       </c>
       <c r="AI17" s="19">
-        <v>2768</v>
+        <v>2575</v>
       </c>
       <c r="AJ17" s="19">
-        <v>1862</v>
+        <v>2495</v>
       </c>
       <c r="AK17" s="19">
-        <v>2575</v>
+        <v>2343</v>
       </c>
       <c r="AL17" s="19">
-        <v>2495</v>
+        <v>2159</v>
       </c>
       <c r="AM17" s="19">
-        <v>2343</v>
+        <v>2743</v>
       </c>
       <c r="AN17" s="19">
-        <v>2159</v>
+        <v>2754</v>
       </c>
       <c r="AO17" s="19">
-        <v>2743</v>
+        <v>2841</v>
       </c>
       <c r="AP17" s="19">
-        <v>2754</v>
+        <v>2631</v>
       </c>
       <c r="AQ17" s="19">
-        <v>2841</v>
+        <v>2674</v>
       </c>
       <c r="AR17" s="19">
-        <v>2631</v>
+        <v>2823</v>
       </c>
       <c r="AS17" s="19">
-        <v>2674</v>
+        <v>2594</v>
       </c>
       <c r="AT17" s="19">
-        <v>2823</v>
+        <v>2989</v>
       </c>
       <c r="AU17" s="19">
-        <v>2594</v>
+        <v>2732</v>
       </c>
       <c r="AV17" s="19">
-        <v>2989</v>
+        <v>2746</v>
       </c>
       <c r="AW17" s="19">
-        <v>2732</v>
+        <v>2355</v>
       </c>
       <c r="AX17" s="19">
-        <v>2746</v>
+        <v>2656</v>
       </c>
       <c r="AY17" s="19">
-        <v>2355</v>
+        <v>2696</v>
       </c>
       <c r="AZ17" s="19">
-        <v>2656</v>
+        <v>2700</v>
       </c>
       <c r="BA17" s="19">
-        <v>2696</v>
+        <v>2665</v>
       </c>
       <c r="BB17" s="19">
-        <v>2700</v>
+        <v>2926</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2459,7 +2459,7 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2514,7 +2514,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2569,7 +2569,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2781,7 +2781,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="BA23" s="9"/>
       <c r="BB23" s="9"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2918,86 +2918,86 @@
       <c r="AB24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>57</v>
+      <c r="AC24" s="11">
+        <v>1930</v>
+      </c>
+      <c r="AD24" s="11">
+        <v>2128</v>
       </c>
       <c r="AE24" s="11">
-        <v>1930</v>
+        <v>2471</v>
       </c>
       <c r="AF24" s="11">
-        <v>2128</v>
+        <v>2290</v>
       </c>
       <c r="AG24" s="11">
-        <v>2471</v>
+        <v>2742</v>
       </c>
       <c r="AH24" s="11">
-        <v>2290</v>
+        <v>2892</v>
       </c>
       <c r="AI24" s="11">
-        <v>2742</v>
+        <v>1939</v>
       </c>
       <c r="AJ24" s="11">
-        <v>2892</v>
+        <v>2494</v>
       </c>
       <c r="AK24" s="11">
-        <v>1939</v>
+        <v>2559</v>
       </c>
       <c r="AL24" s="11">
-        <v>2494</v>
+        <v>2111</v>
       </c>
       <c r="AM24" s="11">
-        <v>2559</v>
+        <v>2402</v>
       </c>
       <c r="AN24" s="11">
-        <v>2111</v>
+        <v>3772</v>
       </c>
       <c r="AO24" s="11">
-        <v>2402</v>
+        <v>2245</v>
       </c>
       <c r="AP24" s="11">
-        <v>3772</v>
+        <v>2598</v>
       </c>
       <c r="AQ24" s="11">
-        <v>2245</v>
+        <v>2574</v>
       </c>
       <c r="AR24" s="11">
-        <v>2598</v>
+        <v>2218</v>
       </c>
       <c r="AS24" s="11">
-        <v>2574</v>
+        <v>3052</v>
       </c>
       <c r="AT24" s="11">
-        <v>2218</v>
+        <v>3758756</v>
       </c>
       <c r="AU24" s="11">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AV24" s="11">
-        <v>3759</v>
+        <v>2773</v>
       </c>
       <c r="AW24" s="11">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AX24" s="11">
-        <v>2778</v>
+        <v>2455</v>
       </c>
       <c r="AY24" s="11">
-        <v>2289</v>
+        <v>3112</v>
       </c>
       <c r="AZ24" s="11">
-        <v>2455</v>
+        <v>3219</v>
       </c>
       <c r="BA24" s="11">
-        <v>3109</v>
+        <v>2131</v>
       </c>
       <c r="BB24" s="11">
-        <v>3189</v>
+        <v>2744</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
@@ -3006,118 +3006,118 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" s="13">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="G25" s="13">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="H25" s="13">
         <v>2</v>
       </c>
       <c r="I25" s="13">
+        <v>14</v>
+      </c>
+      <c r="J25" s="13">
+        <v>50</v>
+      </c>
+      <c r="K25" s="13">
+        <v>23</v>
+      </c>
+      <c r="L25" s="13">
         <v>37</v>
       </c>
-      <c r="J25" s="13">
+      <c r="M25" s="13">
+        <v>32</v>
+      </c>
+      <c r="N25" s="13">
+        <v>20</v>
+      </c>
+      <c r="O25" s="13">
+        <v>46</v>
+      </c>
+      <c r="P25" s="13">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>3</v>
+      </c>
+      <c r="R25" s="13">
+        <v>18</v>
+      </c>
+      <c r="S25" s="13">
+        <v>7</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>3</v>
+      </c>
+      <c r="V25" s="13">
+        <v>13</v>
+      </c>
+      <c r="W25" s="13">
+        <v>13</v>
+      </c>
+      <c r="X25" s="13">
+        <v>11</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>37</v>
+      </c>
+      <c r="AC25" s="13">
         <v>2</v>
       </c>
-      <c r="K25" s="13">
-        <v>14</v>
-      </c>
-      <c r="L25" s="13">
-        <v>50</v>
-      </c>
-      <c r="M25" s="13">
-        <v>23</v>
-      </c>
-      <c r="N25" s="13">
-        <v>37</v>
-      </c>
-      <c r="O25" s="13">
-        <v>32</v>
-      </c>
-      <c r="P25" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>46</v>
-      </c>
-      <c r="R25" s="13">
-        <v>46</v>
-      </c>
-      <c r="S25" s="13">
+      <c r="AD25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="13">
         <v>3</v>
-      </c>
-      <c r="T25" s="13">
-        <v>18</v>
-      </c>
-      <c r="U25" s="13">
-        <v>7</v>
-      </c>
-      <c r="V25" s="13">
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <v>3</v>
-      </c>
-      <c r="X25" s="13">
-        <v>13</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>13</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>11</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>8</v>
-      </c>
-      <c r="AB25" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="13">
-        <v>37</v>
-      </c>
-      <c r="AE25" s="13">
-        <v>2</v>
       </c>
       <c r="AF25" s="13">
         <v>2</v>
       </c>
       <c r="AG25" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="13">
         <v>2</v>
       </c>
-      <c r="AI25" s="13">
-        <v>0</v>
-      </c>
       <c r="AJ25" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="13">
         <v>2</v>
       </c>
-      <c r="AL25" s="13">
-        <v>2</v>
-      </c>
-      <c r="AM25" s="13">
+      <c r="AN25" s="13">
         <v>1</v>
       </c>
-      <c r="AN25" s="13">
-        <v>0</v>
-      </c>
       <c r="AO25" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="13">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
@@ -3164,14 +3164,14 @@
         <v>56</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11">
-        <v>0</v>
+      <c r="E26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>57</v>
+      <c r="G26" s="11">
+        <v>0</v>
       </c>
       <c r="H26" s="11">
         <v>0</v>
@@ -3200,11 +3200,11 @@
       <c r="P26" s="11">
         <v>0</v>
       </c>
-      <c r="Q26" s="11">
-        <v>0</v>
-      </c>
-      <c r="R26" s="11">
-        <v>0</v>
+      <c r="Q26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S26" s="11" t="s">
         <v>57</v>
@@ -3315,7 +3315,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>60</v>
       </c>
@@ -3324,83 +3324,83 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>1330</v>
+        <v>824</v>
       </c>
       <c r="F27" s="13">
-        <v>3589</v>
+        <v>1916</v>
       </c>
       <c r="G27" s="13">
-        <v>824</v>
+        <v>2101</v>
       </c>
       <c r="H27" s="13">
-        <v>1916</v>
+        <v>239</v>
       </c>
       <c r="I27" s="13">
-        <v>2101</v>
+        <v>1132</v>
       </c>
       <c r="J27" s="13">
-        <v>239</v>
+        <v>2398</v>
       </c>
       <c r="K27" s="13">
-        <v>1132</v>
+        <v>831</v>
       </c>
       <c r="L27" s="13">
-        <v>2398</v>
+        <v>1736</v>
       </c>
       <c r="M27" s="13">
-        <v>831</v>
+        <v>2669</v>
       </c>
       <c r="N27" s="13">
-        <v>1736</v>
+        <v>1350</v>
       </c>
       <c r="O27" s="13">
-        <v>2669</v>
+        <v>1575</v>
       </c>
       <c r="P27" s="13">
-        <v>1350</v>
+        <v>3408</v>
       </c>
       <c r="Q27" s="13">
-        <v>1575</v>
+        <v>1914</v>
       </c>
       <c r="R27" s="13">
-        <v>3408</v>
+        <v>2428</v>
       </c>
       <c r="S27" s="13">
-        <v>1914</v>
+        <v>1831</v>
       </c>
       <c r="T27" s="13">
-        <v>2428</v>
+        <v>1833</v>
       </c>
       <c r="U27" s="13">
-        <v>1831</v>
+        <v>2661</v>
       </c>
       <c r="V27" s="13">
-        <v>1833</v>
+        <v>2806</v>
       </c>
       <c r="W27" s="13">
-        <v>2661</v>
+        <v>2296</v>
       </c>
       <c r="X27" s="13">
-        <v>2806</v>
+        <v>2598</v>
       </c>
       <c r="Y27" s="13">
-        <v>2296</v>
+        <v>2741</v>
       </c>
       <c r="Z27" s="13">
-        <v>2598</v>
+        <v>2271</v>
       </c>
       <c r="AA27" s="13">
-        <v>2741</v>
+        <v>2336</v>
       </c>
       <c r="AB27" s="13">
-        <v>2271</v>
-      </c>
-      <c r="AC27" s="13">
-        <v>2336</v>
-      </c>
-      <c r="AD27" s="13">
         <v>3447</v>
       </c>
+      <c r="AC27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE27" s="13" t="s">
         <v>57</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>61</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="BA28" s="15"/>
       <c r="BB28" s="15"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
@@ -3609,11 +3609,11 @@
       <c r="AB29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC29" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD29" s="17" t="s">
-        <v>57</v>
+      <c r="AC29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0</v>
       </c>
       <c r="AE29" s="17">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
@@ -3825,86 +3825,86 @@
       <c r="AB31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD31" s="11" t="s">
-        <v>57</v>
+      <c r="AC31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="11">
+        <v>0</v>
       </c>
       <c r="AE31" s="11">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AF31" s="11">
         <v>0</v>
       </c>
       <c r="AG31" s="11">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AI31" s="11">
         <v>0</v>
       </c>
       <c r="AJ31" s="11">
+        <v>-33</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="11">
+        <v>-2</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP31" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AQ31" s="11">
         <v>-10</v>
       </c>
-      <c r="AK31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="11">
-        <v>-33</v>
-      </c>
-      <c r="AM31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="AR31" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="11">
         <v>0</v>
       </c>
-      <c r="AU31" s="11">
-        <v>0</v>
+      <c r="AU31" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV31" s="11">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AW31" s="11">
         <v>0</v>
       </c>
       <c r="AX31" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="11">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AZ31" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BA31" s="11">
-        <v>-183</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="11">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>66</v>
       </c>
@@ -3982,56 +3982,56 @@
       <c r="AB32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AC32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD32" s="19" t="s">
-        <v>57</v>
+      <c r="AC32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="19">
+        <v>0</v>
       </c>
       <c r="AE32" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AF32" s="19">
         <v>0</v>
       </c>
       <c r="AG32" s="19">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AI32" s="19">
         <v>0</v>
       </c>
       <c r="AJ32" s="19">
+        <v>-33</v>
+      </c>
+      <c r="AK32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AO32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="19">
+        <v>-1</v>
+      </c>
+      <c r="AQ32" s="19">
         <v>-10</v>
       </c>
-      <c r="AK32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="19">
-        <v>-33</v>
-      </c>
-      <c r="AM32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AQ32" s="19">
-        <v>0</v>
-      </c>
       <c r="AR32" s="19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="19">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="19">
         <v>0</v>
@@ -4040,185 +4040,185 @@
         <v>0</v>
       </c>
       <c r="AV32" s="19">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AW32" s="19">
         <v>0</v>
       </c>
       <c r="AX32" s="19">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AY32" s="19">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AZ32" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="BA32" s="19">
-        <v>-183</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="19">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17">
-        <v>1336</v>
+        <v>833</v>
       </c>
       <c r="F33" s="17">
-        <v>3687</v>
+        <v>1918</v>
       </c>
       <c r="G33" s="17">
-        <v>833</v>
+        <v>2138</v>
       </c>
       <c r="H33" s="17">
-        <v>1918</v>
+        <v>241</v>
       </c>
       <c r="I33" s="17">
-        <v>2138</v>
+        <v>1146</v>
       </c>
       <c r="J33" s="17">
-        <v>241</v>
+        <v>2448</v>
       </c>
       <c r="K33" s="17">
-        <v>1146</v>
+        <v>854</v>
       </c>
       <c r="L33" s="17">
-        <v>2448</v>
+        <v>1773</v>
       </c>
       <c r="M33" s="17">
-        <v>854</v>
+        <v>2701</v>
       </c>
       <c r="N33" s="17">
-        <v>1773</v>
+        <v>1370</v>
       </c>
       <c r="O33" s="17">
-        <v>2701</v>
+        <v>1621</v>
       </c>
       <c r="P33" s="17">
-        <v>1370</v>
+        <v>3454</v>
       </c>
       <c r="Q33" s="17">
-        <v>1621</v>
+        <v>1917</v>
       </c>
       <c r="R33" s="17">
-        <v>3454</v>
+        <v>2446</v>
       </c>
       <c r="S33" s="17">
-        <v>1917</v>
+        <v>1838</v>
       </c>
       <c r="T33" s="17">
-        <v>2446</v>
+        <v>1833</v>
       </c>
       <c r="U33" s="17">
-        <v>1838</v>
+        <v>2664</v>
       </c>
       <c r="V33" s="17">
-        <v>1833</v>
+        <v>2819</v>
       </c>
       <c r="W33" s="17">
-        <v>2664</v>
+        <v>2309</v>
       </c>
       <c r="X33" s="17">
-        <v>2819</v>
+        <v>2609</v>
       </c>
       <c r="Y33" s="17">
-        <v>2309</v>
+        <v>2749</v>
       </c>
       <c r="Z33" s="17">
-        <v>2609</v>
+        <v>2276</v>
       </c>
       <c r="AA33" s="17">
-        <v>2749</v>
+        <v>2339</v>
       </c>
       <c r="AB33" s="17">
-        <v>2276</v>
+        <v>3484</v>
       </c>
       <c r="AC33" s="17">
-        <v>2339</v>
+        <v>1932</v>
       </c>
       <c r="AD33" s="17">
-        <v>3484</v>
+        <v>2130</v>
       </c>
       <c r="AE33" s="17">
-        <v>1932</v>
+        <v>2458</v>
       </c>
       <c r="AF33" s="17">
-        <v>2130</v>
+        <v>2292</v>
       </c>
       <c r="AG33" s="17">
-        <v>2458</v>
+        <v>2742</v>
       </c>
       <c r="AH33" s="17">
-        <v>2292</v>
+        <v>2882</v>
       </c>
       <c r="AI33" s="17">
-        <v>2742</v>
+        <v>1941</v>
       </c>
       <c r="AJ33" s="17">
-        <v>2882</v>
+        <v>2463</v>
       </c>
       <c r="AK33" s="17">
-        <v>1941</v>
+        <v>2560</v>
       </c>
       <c r="AL33" s="17">
-        <v>2463</v>
+        <v>2112</v>
       </c>
       <c r="AM33" s="17">
-        <v>2560</v>
+        <v>2404</v>
       </c>
       <c r="AN33" s="17">
-        <v>2112</v>
+        <v>3771</v>
       </c>
       <c r="AO33" s="17">
-        <v>2404</v>
+        <v>2245</v>
       </c>
       <c r="AP33" s="17">
-        <v>3771</v>
+        <v>2597</v>
       </c>
       <c r="AQ33" s="17">
-        <v>2245</v>
+        <v>2564</v>
       </c>
       <c r="AR33" s="17">
-        <v>2597</v>
+        <v>2218</v>
       </c>
       <c r="AS33" s="17">
-        <v>2564</v>
+        <v>3052</v>
       </c>
       <c r="AT33" s="17">
-        <v>2218</v>
+        <v>3758756</v>
       </c>
       <c r="AU33" s="17">
-        <v>3052</v>
+        <v>2414</v>
       </c>
       <c r="AV33" s="17">
-        <v>3759</v>
+        <v>2766</v>
       </c>
       <c r="AW33" s="17">
-        <v>2414</v>
+        <v>2289</v>
       </c>
       <c r="AX33" s="17">
-        <v>2772</v>
+        <v>2455</v>
       </c>
       <c r="AY33" s="17">
-        <v>2289</v>
+        <v>2929</v>
       </c>
       <c r="AZ33" s="17">
-        <v>2455</v>
+        <v>3216</v>
       </c>
       <c r="BA33" s="17">
-        <v>2926</v>
+        <v>2131</v>
       </c>
       <c r="BB33" s="17">
-        <v>3186</v>
+        <v>2744</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4273,7 +4273,7 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4328,7 +4328,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -4383,7 +4383,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4595,7 +4595,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>67</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="9"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>55</v>
       </c>
@@ -4732,86 +4732,86 @@
       <c r="AB40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>57</v>
+      <c r="AC40" s="11">
+        <v>1191457</v>
+      </c>
+      <c r="AD40" s="11">
+        <v>1355871</v>
       </c>
       <c r="AE40" s="11">
-        <v>1191457</v>
+        <v>1592498</v>
       </c>
       <c r="AF40" s="11">
-        <v>1355871</v>
+        <v>1523931</v>
       </c>
       <c r="AG40" s="11">
-        <v>1592498</v>
+        <v>1819777</v>
       </c>
       <c r="AH40" s="11">
-        <v>1523931</v>
+        <v>1892779</v>
       </c>
       <c r="AI40" s="11">
-        <v>1819777</v>
+        <v>1193279</v>
       </c>
       <c r="AJ40" s="11">
-        <v>1892779</v>
+        <v>1695357</v>
       </c>
       <c r="AK40" s="11">
-        <v>1193279</v>
+        <v>1712597</v>
       </c>
       <c r="AL40" s="11">
-        <v>1695357</v>
+        <v>1392264</v>
       </c>
       <c r="AM40" s="11">
-        <v>1712597</v>
+        <v>1666609</v>
       </c>
       <c r="AN40" s="11">
-        <v>1392264</v>
+        <v>2406247</v>
       </c>
       <c r="AO40" s="11">
-        <v>1666609</v>
+        <v>1528367</v>
       </c>
       <c r="AP40" s="11">
-        <v>2406247</v>
+        <v>1828344</v>
       </c>
       <c r="AQ40" s="11">
-        <v>1528367</v>
+        <v>1741513</v>
       </c>
       <c r="AR40" s="11">
-        <v>1828344</v>
+        <v>1414660</v>
       </c>
       <c r="AS40" s="11">
-        <v>1741513</v>
+        <v>2144452</v>
       </c>
       <c r="AT40" s="11">
-        <v>1576722</v>
+        <v>3184013</v>
       </c>
       <c r="AU40" s="11">
-        <v>2200510</v>
+        <v>2011958</v>
       </c>
       <c r="AV40" s="11">
-        <v>3184013</v>
+        <v>2463859</v>
       </c>
       <c r="AW40" s="11">
-        <v>2011958</v>
+        <v>2101282</v>
       </c>
       <c r="AX40" s="11">
-        <v>2463859</v>
+        <v>2264156</v>
       </c>
       <c r="AY40" s="11">
-        <v>2101282</v>
+        <v>2882096</v>
       </c>
       <c r="AZ40" s="11">
-        <v>2264156</v>
+        <v>3042227</v>
       </c>
       <c r="BA40" s="11">
-        <v>2882483</v>
+        <v>2047893</v>
       </c>
       <c r="BB40" s="11">
-        <v>3015017</v>
+        <v>2773232</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>58</v>
       </c>
@@ -4820,118 +4820,118 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>431</v>
+        <v>1110</v>
       </c>
       <c r="F41" s="13">
-        <v>11766</v>
+        <v>222</v>
       </c>
       <c r="G41" s="13">
-        <v>1110</v>
+        <v>5615</v>
       </c>
       <c r="H41" s="13">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="I41" s="13">
-        <v>5615</v>
+        <v>2063</v>
       </c>
       <c r="J41" s="13">
-        <v>272</v>
+        <v>7339</v>
       </c>
       <c r="K41" s="13">
-        <v>2063</v>
+        <v>3844</v>
       </c>
       <c r="L41" s="13">
-        <v>7339</v>
+        <v>6092</v>
       </c>
       <c r="M41" s="13">
-        <v>3844</v>
+        <v>5244</v>
       </c>
       <c r="N41" s="13">
-        <v>6092</v>
+        <v>3286</v>
       </c>
       <c r="O41" s="13">
-        <v>5244</v>
+        <v>8054</v>
       </c>
       <c r="P41" s="13">
-        <v>3286</v>
+        <v>7895</v>
       </c>
       <c r="Q41" s="13">
-        <v>8054</v>
+        <v>513</v>
       </c>
       <c r="R41" s="13">
-        <v>7895</v>
+        <v>3569</v>
       </c>
       <c r="S41" s="13">
-        <v>513</v>
+        <v>1589</v>
       </c>
       <c r="T41" s="13">
-        <v>3569</v>
+        <v>15</v>
       </c>
       <c r="U41" s="13">
-        <v>1589</v>
+        <v>685</v>
       </c>
       <c r="V41" s="13">
-        <v>15</v>
+        <v>2706</v>
       </c>
       <c r="W41" s="13">
-        <v>685</v>
+        <v>3323</v>
       </c>
       <c r="X41" s="13">
-        <v>2706</v>
+        <v>2970</v>
       </c>
       <c r="Y41" s="13">
-        <v>3323</v>
+        <v>2539</v>
       </c>
       <c r="Z41" s="13">
-        <v>2970</v>
+        <v>1695</v>
       </c>
       <c r="AA41" s="13">
-        <v>2539</v>
+        <v>615</v>
       </c>
       <c r="AB41" s="13">
-        <v>1695</v>
+        <v>17649</v>
       </c>
       <c r="AC41" s="13">
-        <v>615</v>
+        <v>1141</v>
       </c>
       <c r="AD41" s="13">
-        <v>17649</v>
+        <v>619</v>
       </c>
       <c r="AE41" s="13">
-        <v>1141</v>
+        <v>1458</v>
       </c>
       <c r="AF41" s="13">
-        <v>619</v>
+        <v>762</v>
       </c>
       <c r="AG41" s="13">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="13">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="13">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AJ41" s="13">
-        <v>0</v>
+        <v>883</v>
       </c>
       <c r="AK41" s="13">
-        <v>852</v>
+        <v>448</v>
       </c>
       <c r="AL41" s="13">
-        <v>883</v>
+        <v>217</v>
       </c>
       <c r="AM41" s="13">
-        <v>448</v>
+        <v>1009</v>
       </c>
       <c r="AN41" s="13">
-        <v>217</v>
+        <v>583</v>
       </c>
       <c r="AO41" s="13">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="13">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="13">
         <v>0</v>
@@ -4946,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="AU41" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV41" s="13">
         <v>0</v>
       </c>
       <c r="AW41" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>59</v>
       </c>
@@ -4978,17 +4978,17 @@
         <v>68</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>0</v>
+      <c r="E42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F42" s="11">
-        <v>0</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I42" s="11">
         <v>0</v>
@@ -5014,11 +5014,11 @@
       <c r="P42" s="11">
         <v>0</v>
       </c>
-      <c r="Q42" s="11">
-        <v>0</v>
-      </c>
-      <c r="R42" s="11">
-        <v>0</v>
+      <c r="Q42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S42" s="11" t="s">
         <v>57</v>
@@ -5129,7 +5129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>60</v>
       </c>
@@ -5138,83 +5138,83 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>221060</v>
+        <v>123766</v>
       </c>
       <c r="F43" s="13">
-        <v>645714</v>
+        <v>371478</v>
       </c>
       <c r="G43" s="13">
-        <v>123766</v>
+        <v>410796</v>
       </c>
       <c r="H43" s="13">
-        <v>371478</v>
+        <v>44938</v>
       </c>
       <c r="I43" s="13">
-        <v>410796</v>
+        <v>234521</v>
       </c>
       <c r="J43" s="13">
-        <v>44938</v>
+        <v>484029</v>
       </c>
       <c r="K43" s="13">
-        <v>234521</v>
+        <v>174519</v>
       </c>
       <c r="L43" s="13">
-        <v>484029</v>
+        <v>407145</v>
       </c>
       <c r="M43" s="13">
-        <v>174519</v>
+        <v>692900</v>
       </c>
       <c r="N43" s="13">
-        <v>407145</v>
+        <v>346214</v>
       </c>
       <c r="O43" s="13">
-        <v>692900</v>
+        <v>369645</v>
       </c>
       <c r="P43" s="13">
-        <v>346214</v>
+        <v>843042</v>
       </c>
       <c r="Q43" s="13">
-        <v>369645</v>
+        <v>496206</v>
       </c>
       <c r="R43" s="13">
-        <v>843042</v>
+        <v>644252</v>
       </c>
       <c r="S43" s="13">
-        <v>496206</v>
+        <v>492123</v>
       </c>
       <c r="T43" s="13">
-        <v>644252</v>
+        <v>479085</v>
       </c>
       <c r="U43" s="13">
-        <v>492123</v>
+        <v>713186</v>
       </c>
       <c r="V43" s="13">
-        <v>479085</v>
+        <v>756541</v>
       </c>
       <c r="W43" s="13">
-        <v>713186</v>
+        <v>784741</v>
       </c>
       <c r="X43" s="13">
-        <v>756541</v>
+        <v>935129</v>
       </c>
       <c r="Y43" s="13">
-        <v>784741</v>
+        <v>1107966</v>
       </c>
       <c r="Z43" s="13">
-        <v>935129</v>
+        <v>956995</v>
       </c>
       <c r="AA43" s="13">
-        <v>1107966</v>
+        <v>1014561</v>
       </c>
       <c r="AB43" s="13">
-        <v>956995</v>
-      </c>
-      <c r="AC43" s="13">
-        <v>1014561</v>
-      </c>
-      <c r="AD43" s="13">
         <v>2319677</v>
       </c>
+      <c r="AC43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AE43" s="13" t="s">
         <v>57</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>69</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="BA44" s="15"/>
       <c r="BB44" s="15"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>62</v>
       </c>
@@ -5425,11 +5425,11 @@
       <c r="AB45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AC45" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD45" s="17" t="s">
-        <v>57</v>
+      <c r="AC45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="17">
+        <v>0</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -5504,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>70</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5641,86 +5641,86 @@
       <c r="AB47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD47" s="11" t="s">
-        <v>57</v>
+      <c r="AC47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>-78</v>
       </c>
       <c r="AE47" s="11">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AF47" s="11">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AG47" s="11">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AH47" s="11">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AI47" s="11">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AJ47" s="11">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AK47" s="11">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="11">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AM47" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AN47" s="11">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AO47" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AP47" s="11">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AQ47" s="11">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AR47" s="11">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AS47" s="11">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AU47" s="11">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AV47" s="11">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AW47" s="11">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AX47" s="11">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="AY47" s="11">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="AZ47" s="11">
-        <v>0</v>
+        <v>-3622</v>
       </c>
       <c r="BA47" s="11">
-        <v>-148836</v>
+        <v>-62</v>
       </c>
       <c r="BB47" s="11">
-        <v>-3622</v>
+        <v>-402</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
@@ -5800,86 +5800,86 @@
       <c r="AB48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AC48" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD48" s="19" t="s">
-        <v>57</v>
+      <c r="AC48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>-78</v>
       </c>
       <c r="AE48" s="19">
-        <v>0</v>
+        <v>-5051</v>
       </c>
       <c r="AF48" s="19">
-        <v>-78</v>
+        <v>-90</v>
       </c>
       <c r="AG48" s="19">
-        <v>-5051</v>
+        <v>-4</v>
       </c>
       <c r="AH48" s="19">
-        <v>-90</v>
+        <v>-6637</v>
       </c>
       <c r="AI48" s="19">
-        <v>-4</v>
+        <v>-24</v>
       </c>
       <c r="AJ48" s="19">
-        <v>-6637</v>
+        <v>-28202</v>
       </c>
       <c r="AK48" s="19">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AL48" s="19">
-        <v>-28202</v>
+        <v>-37</v>
       </c>
       <c r="AM48" s="19">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AN48" s="19">
-        <v>-37</v>
+        <v>-1637</v>
       </c>
       <c r="AO48" s="19">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AP48" s="19">
-        <v>-1637</v>
+        <v>-594</v>
       </c>
       <c r="AQ48" s="19">
-        <v>0</v>
+        <v>-10484</v>
       </c>
       <c r="AR48" s="19">
-        <v>-594</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="19">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="19">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AU48" s="19">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AV48" s="19">
-        <v>-35</v>
+        <v>-7134</v>
       </c>
       <c r="AW48" s="19">
-        <v>-14</v>
+        <v>-38</v>
       </c>
       <c r="AX48" s="19">
-        <v>-7134</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="19">
-        <v>-38</v>
+        <v>-148836</v>
       </c>
       <c r="AZ48" s="19">
-        <v>0</v>
+        <v>-3622</v>
       </c>
       <c r="BA48" s="19">
-        <v>-148836</v>
+        <v>-62</v>
       </c>
       <c r="BB48" s="19">
-        <v>-3622</v>
+        <v>-402</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>71</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>72</v>
       </c>
@@ -6016,243 +6016,243 @@
       <c r="AB50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD50" s="11" t="s">
-        <v>57</v>
+      <c r="AC50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="11">
+        <v>-109</v>
       </c>
       <c r="AE50" s="11">
         <v>0</v>
       </c>
       <c r="AF50" s="11">
-        <v>-109</v>
+        <v>-108</v>
       </c>
       <c r="AG50" s="11">
         <v>0</v>
       </c>
       <c r="AH50" s="11">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="AI50" s="11">
         <v>0</v>
       </c>
       <c r="AJ50" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK50" s="11">
         <v>0</v>
       </c>
       <c r="AL50" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="11">
         <v>0</v>
       </c>
       <c r="AN50" s="11">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AO50" s="11">
         <v>0</v>
       </c>
       <c r="AP50" s="11">
-        <v>-218</v>
+        <v>-38</v>
       </c>
       <c r="AQ50" s="11">
         <v>0</v>
       </c>
       <c r="AR50" s="11">
-        <v>-38</v>
+        <v>-20</v>
       </c>
       <c r="AS50" s="11">
-        <v>0</v>
+        <v>-981</v>
       </c>
       <c r="AT50" s="11">
-        <v>-148</v>
+        <v>-2552</v>
       </c>
       <c r="AU50" s="11">
-        <v>-992</v>
+        <v>-663</v>
       </c>
       <c r="AV50" s="11">
-        <v>-2552</v>
+        <v>-747</v>
       </c>
       <c r="AW50" s="11">
-        <v>-663</v>
+        <v>-664</v>
       </c>
       <c r="AX50" s="11">
-        <v>-747</v>
+        <v>-2136</v>
       </c>
       <c r="AY50" s="11">
-        <v>-664</v>
+        <v>-2432</v>
       </c>
       <c r="AZ50" s="11">
-        <v>-2136</v>
+        <v>-4595</v>
       </c>
       <c r="BA50" s="11">
-        <v>-2432</v>
+        <v>-630</v>
       </c>
       <c r="BB50" s="11">
-        <v>-4470</v>
+        <v>-1632</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19">
-        <v>221491</v>
+        <v>124876</v>
       </c>
       <c r="F51" s="19">
-        <v>657480</v>
+        <v>371735</v>
       </c>
       <c r="G51" s="19">
-        <v>124876</v>
+        <v>416411</v>
       </c>
       <c r="H51" s="19">
-        <v>371735</v>
+        <v>45210</v>
       </c>
       <c r="I51" s="19">
-        <v>416411</v>
+        <v>236584</v>
       </c>
       <c r="J51" s="19">
-        <v>45210</v>
+        <v>491368</v>
       </c>
       <c r="K51" s="19">
-        <v>236584</v>
+        <v>178363</v>
       </c>
       <c r="L51" s="19">
-        <v>491368</v>
+        <v>413237</v>
       </c>
       <c r="M51" s="19">
-        <v>178363</v>
+        <v>698144</v>
       </c>
       <c r="N51" s="19">
-        <v>413237</v>
+        <v>349500</v>
       </c>
       <c r="O51" s="19">
-        <v>698144</v>
+        <v>377699</v>
       </c>
       <c r="P51" s="19">
-        <v>349500</v>
+        <v>850937</v>
       </c>
       <c r="Q51" s="19">
-        <v>377699</v>
+        <v>496719</v>
       </c>
       <c r="R51" s="19">
-        <v>850937</v>
+        <v>647821</v>
       </c>
       <c r="S51" s="19">
-        <v>496719</v>
+        <v>493712</v>
       </c>
       <c r="T51" s="19">
-        <v>647821</v>
+        <v>479100</v>
       </c>
       <c r="U51" s="19">
-        <v>493712</v>
+        <v>713871</v>
       </c>
       <c r="V51" s="19">
-        <v>479100</v>
+        <v>759247</v>
       </c>
       <c r="W51" s="19">
-        <v>713871</v>
+        <v>788064</v>
       </c>
       <c r="X51" s="19">
-        <v>759247</v>
+        <v>938099</v>
       </c>
       <c r="Y51" s="19">
-        <v>788064</v>
+        <v>1110505</v>
       </c>
       <c r="Z51" s="19">
-        <v>938099</v>
+        <v>958690</v>
       </c>
       <c r="AA51" s="19">
-        <v>1110505</v>
+        <v>1015176</v>
       </c>
       <c r="AB51" s="19">
-        <v>958690</v>
+        <v>2337326</v>
       </c>
       <c r="AC51" s="19">
-        <v>1015176</v>
+        <v>1192598</v>
       </c>
       <c r="AD51" s="19">
-        <v>2337326</v>
+        <v>1356303</v>
       </c>
       <c r="AE51" s="19">
-        <v>1192598</v>
+        <v>1588905</v>
       </c>
       <c r="AF51" s="19">
-        <v>1356303</v>
+        <v>1524495</v>
       </c>
       <c r="AG51" s="19">
-        <v>1588905</v>
+        <v>1819773</v>
       </c>
       <c r="AH51" s="19">
-        <v>1524495</v>
+        <v>1886142</v>
       </c>
       <c r="AI51" s="19">
-        <v>1819773</v>
+        <v>1194107</v>
       </c>
       <c r="AJ51" s="19">
-        <v>1886142</v>
+        <v>1668037</v>
       </c>
       <c r="AK51" s="19">
-        <v>1194107</v>
+        <v>1713045</v>
       </c>
       <c r="AL51" s="19">
-        <v>1668037</v>
+        <v>1392444</v>
       </c>
       <c r="AM51" s="19">
-        <v>1713045</v>
+        <v>1667610</v>
       </c>
       <c r="AN51" s="19">
-        <v>1392444</v>
+        <v>2404975</v>
       </c>
       <c r="AO51" s="19">
-        <v>1667610</v>
+        <v>1528367</v>
       </c>
       <c r="AP51" s="19">
-        <v>2404975</v>
+        <v>1827712</v>
       </c>
       <c r="AQ51" s="19">
-        <v>1528367</v>
+        <v>1731029</v>
       </c>
       <c r="AR51" s="19">
-        <v>1827712</v>
+        <v>1414640</v>
       </c>
       <c r="AS51" s="19">
-        <v>1731029</v>
+        <v>2143471</v>
       </c>
       <c r="AT51" s="19">
-        <v>1576574</v>
+        <v>3181426</v>
       </c>
       <c r="AU51" s="19">
-        <v>2199518</v>
+        <v>2011282</v>
       </c>
       <c r="AV51" s="19">
-        <v>3181426</v>
+        <v>2455978</v>
       </c>
       <c r="AW51" s="19">
-        <v>2011282</v>
+        <v>2100580</v>
       </c>
       <c r="AX51" s="19">
-        <v>2455978</v>
+        <v>2262020</v>
       </c>
       <c r="AY51" s="19">
-        <v>2100580</v>
+        <v>2730828</v>
       </c>
       <c r="AZ51" s="19">
-        <v>2262020</v>
+        <v>3034010</v>
       </c>
       <c r="BA51" s="19">
-        <v>2731215</v>
+        <v>2047201</v>
       </c>
       <c r="BB51" s="19">
-        <v>3006925</v>
+        <v>2771198</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6307,7 +6307,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6362,7 +6362,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6417,7 +6417,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>73</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6629,7 +6629,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>74</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="9"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>55</v>
       </c>
@@ -6766,86 +6766,86 @@
       <c r="AB58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD58" s="11" t="s">
-        <v>57</v>
+      <c r="AC58" s="11">
+        <v>617335233</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>637135568</v>
       </c>
       <c r="AE58" s="11">
-        <v>617335233</v>
+        <v>644355941</v>
       </c>
       <c r="AF58" s="11">
-        <v>637135568</v>
+        <v>665452873</v>
       </c>
       <c r="AG58" s="11">
-        <v>644355941</v>
+        <v>663560071</v>
       </c>
       <c r="AH58" s="11">
-        <v>665452873</v>
+        <v>654401911</v>
       </c>
       <c r="AI58" s="11">
-        <v>663560071</v>
+        <v>615457101</v>
       </c>
       <c r="AJ58" s="11">
-        <v>654401911</v>
+        <v>679847858</v>
       </c>
       <c r="AK58" s="11">
-        <v>615457101</v>
+        <v>669182651</v>
       </c>
       <c r="AL58" s="11">
-        <v>679847858</v>
+        <v>659472579</v>
       </c>
       <c r="AM58" s="11">
-        <v>669182651</v>
+        <v>693923972</v>
       </c>
       <c r="AN58" s="11">
-        <v>659472579</v>
+        <v>637923383</v>
       </c>
       <c r="AO58" s="11">
-        <v>693923972</v>
+        <v>680746450</v>
       </c>
       <c r="AP58" s="11">
-        <v>637923383</v>
+        <v>703885502</v>
       </c>
       <c r="AQ58" s="11">
-        <v>680746450</v>
+        <v>676562706</v>
       </c>
       <c r="AR58" s="11">
-        <v>703885502</v>
+        <v>637722868</v>
       </c>
       <c r="AS58" s="11">
-        <v>676554367</v>
+        <v>702554939</v>
       </c>
       <c r="AT58" s="11">
-        <v>654541025</v>
+        <v>847092</v>
       </c>
       <c r="AU58" s="11">
-        <v>706971787</v>
+        <v>833323186</v>
       </c>
       <c r="AV58" s="11">
-        <v>730881971</v>
+        <v>888672920</v>
       </c>
       <c r="AW58" s="11">
-        <v>833323186</v>
+        <v>918136464</v>
       </c>
       <c r="AX58" s="11">
-        <v>888465095</v>
+        <v>922409670</v>
       </c>
       <c r="AY58" s="11">
-        <v>918136431</v>
+        <v>926239471</v>
       </c>
       <c r="AZ58" s="11">
-        <v>922409670</v>
+        <v>945002299</v>
       </c>
       <c r="BA58" s="11">
-        <v>927171347</v>
+        <v>960811572</v>
       </c>
       <c r="BB58" s="11">
-        <v>945439807</v>
+        <v>1010619914</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>58</v>
       </c>
@@ -6854,119 +6854,119 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>71833333</v>
+        <v>123333333</v>
       </c>
       <c r="F59" s="13">
-        <v>120061224</v>
+        <v>111000000</v>
       </c>
       <c r="G59" s="13">
-        <v>123333333</v>
+        <v>151756757</v>
       </c>
       <c r="H59" s="13">
-        <v>111000000</v>
+        <v>136000000</v>
       </c>
       <c r="I59" s="13">
-        <v>151756757</v>
+        <v>147357143</v>
       </c>
       <c r="J59" s="13">
-        <v>136000000</v>
+        <v>146780000</v>
       </c>
       <c r="K59" s="13">
-        <v>147357143</v>
+        <v>167130435</v>
       </c>
       <c r="L59" s="13">
-        <v>146780000</v>
+        <v>164648649</v>
       </c>
       <c r="M59" s="13">
-        <v>167130435</v>
+        <v>163875000</v>
       </c>
       <c r="N59" s="13">
-        <v>164648649</v>
+        <v>164300000</v>
       </c>
       <c r="O59" s="13">
-        <v>163875000</v>
+        <v>175086957</v>
       </c>
       <c r="P59" s="13">
-        <v>164300000</v>
+        <v>171630435</v>
       </c>
       <c r="Q59" s="13">
-        <v>175086957</v>
+        <v>171000000</v>
       </c>
       <c r="R59" s="13">
-        <v>171630435</v>
+        <v>198277778</v>
       </c>
       <c r="S59" s="13">
-        <v>171000000</v>
+        <v>227000000</v>
       </c>
       <c r="T59" s="13">
-        <v>198277778</v>
+        <v>0</v>
       </c>
       <c r="U59" s="13">
-        <v>227000000</v>
+        <v>228333333</v>
       </c>
       <c r="V59" s="13">
-        <v>0</v>
+        <v>208153846</v>
       </c>
       <c r="W59" s="13">
-        <v>228333333</v>
+        <v>255615385</v>
       </c>
       <c r="X59" s="13">
-        <v>208153846</v>
+        <v>270000000</v>
       </c>
       <c r="Y59" s="13">
-        <v>255615385</v>
+        <v>317375000</v>
       </c>
       <c r="Z59" s="13">
-        <v>270000000</v>
+        <v>339000000</v>
       </c>
       <c r="AA59" s="13">
-        <v>317375000</v>
+        <v>205000000</v>
       </c>
       <c r="AB59" s="13">
-        <v>339000000</v>
+        <v>477000000</v>
       </c>
       <c r="AC59" s="13">
-        <v>205000000</v>
+        <v>570500000</v>
       </c>
       <c r="AD59" s="13">
-        <v>477000000</v>
+        <v>353512279</v>
       </c>
       <c r="AE59" s="13">
-        <v>570500000</v>
+        <v>453358209</v>
       </c>
       <c r="AF59" s="13">
-        <v>353512279</v>
-      </c>
-      <c r="AG59" s="13">
-        <v>453358209</v>
-      </c>
-      <c r="AH59" s="13">
         <v>473586078</v>
       </c>
-      <c r="AI59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ59" s="13" t="s">
-        <v>57</v>
+      <c r="AG59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI59" s="13">
+        <v>474123539</v>
+      </c>
+      <c r="AJ59" s="13">
+        <v>472192513</v>
       </c>
       <c r="AK59" s="13">
-        <v>474123539</v>
+        <v>472573840</v>
       </c>
       <c r="AL59" s="13">
-        <v>472192513</v>
+        <v>474835886</v>
       </c>
       <c r="AM59" s="13">
-        <v>472573840</v>
+        <v>473486626</v>
       </c>
       <c r="AN59" s="13">
-        <v>474835886</v>
-      </c>
-      <c r="AO59" s="13">
-        <v>473486626</v>
-      </c>
-      <c r="AP59" s="13">
         <v>473983740</v>
       </c>
+      <c r="AO59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP59" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ59" s="13" t="s">
         <v>57</v>
       </c>
@@ -6979,20 +6979,20 @@
       <c r="AT59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AU59" s="13" t="s">
-        <v>57</v>
+      <c r="AU59" s="13">
+        <v>500000000</v>
       </c>
       <c r="AV59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AW59" s="13">
-        <v>500000000</v>
-      </c>
-      <c r="AX59" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY59" s="13">
-        <v>-500000000</v>
+      <c r="AW59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AZ59" s="13" t="s">
         <v>57</v>
@@ -7004,7 +7004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>59</v>
       </c>
@@ -7012,14 +7012,14 @@
         <v>75</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
-        <v>0</v>
+      <c r="E60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F60" s="11">
         <v>0</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>57</v>
+      <c r="G60" s="11">
+        <v>0</v>
       </c>
       <c r="H60" s="11">
         <v>0</v>
@@ -7048,11 +7048,11 @@
       <c r="P60" s="11">
         <v>0</v>
       </c>
-      <c r="Q60" s="11">
-        <v>0</v>
-      </c>
-      <c r="R60" s="11">
-        <v>0</v>
+      <c r="Q60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>57</v>
@@ -7163,7 +7163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>60</v>
       </c>
@@ -7172,82 +7172,82 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>166210526</v>
+        <v>150201456</v>
       </c>
       <c r="F61" s="13">
-        <v>179914739</v>
+        <v>193882046</v>
       </c>
       <c r="G61" s="13">
-        <v>150201456</v>
+        <v>195524036</v>
       </c>
       <c r="H61" s="13">
-        <v>193882046</v>
+        <v>188025105</v>
       </c>
       <c r="I61" s="13">
-        <v>195524036</v>
+        <v>207174028</v>
       </c>
       <c r="J61" s="13">
-        <v>188025105</v>
+        <v>201846956</v>
       </c>
       <c r="K61" s="13">
-        <v>207174028</v>
+        <v>210010830</v>
       </c>
       <c r="L61" s="13">
-        <v>201846956</v>
+        <v>234530530</v>
       </c>
       <c r="M61" s="13">
-        <v>210010830</v>
+        <v>259610341</v>
       </c>
       <c r="N61" s="13">
-        <v>234530530</v>
+        <v>256454815</v>
       </c>
       <c r="O61" s="13">
-        <v>259610341</v>
+        <v>234695238</v>
       </c>
       <c r="P61" s="13">
-        <v>256454815</v>
+        <v>247371479</v>
       </c>
       <c r="Q61" s="13">
-        <v>234695238</v>
+        <v>259250784</v>
       </c>
       <c r="R61" s="13">
-        <v>247371479</v>
+        <v>265342669</v>
       </c>
       <c r="S61" s="13">
-        <v>259250784</v>
+        <v>268772802</v>
       </c>
       <c r="T61" s="13">
-        <v>265342669</v>
+        <v>261366612</v>
       </c>
       <c r="U61" s="13">
-        <v>268772802</v>
+        <v>268014280</v>
       </c>
       <c r="V61" s="13">
-        <v>261366612</v>
+        <v>269615467</v>
       </c>
       <c r="W61" s="13">
-        <v>268014280</v>
+        <v>341786150</v>
       </c>
       <c r="X61" s="13">
-        <v>269615467</v>
+        <v>359941878</v>
       </c>
       <c r="Y61" s="13">
-        <v>341786150</v>
+        <v>404219628</v>
       </c>
       <c r="Z61" s="13">
-        <v>359941878</v>
+        <v>421398063</v>
       </c>
       <c r="AA61" s="13">
-        <v>404219628</v>
+        <v>434315497</v>
       </c>
       <c r="AB61" s="13">
-        <v>421398063</v>
-      </c>
-      <c r="AC61" s="13">
-        <v>434315497</v>
-      </c>
-      <c r="AD61" s="13">
         <v>672955323</v>
+      </c>
+      <c r="AC61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD61" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AE61" s="13" t="s">
         <v>57</v>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3282,89 +3282,89 @@
       <c r="Z11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>57</v>
+      <c r="AA11" s="13" t="n">
+        <v>2412</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>2412</v>
+        <v>2286</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>2286</v>
+        <v>2531</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>2531</v>
+        <v>2673</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>2673</v>
+        <v>2768</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>2768</v>
+        <v>1862</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>1862</v>
+        <v>2573</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>2573</v>
+        <v>2495</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>2495</v>
+        <v>2343</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>2343</v>
+        <v>2157</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>2157</v>
+        <v>2742</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>2742</v>
+        <v>2754</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>2754</v>
+        <v>2841</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>2631</v>
+        <v>2674</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>2674</v>
+        <v>2823</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>2823</v>
+        <v>2594</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>2594</v>
+        <v>2989</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>2989</v>
+        <v>2732</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>2746</v>
+        <v>2355</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>2355</v>
+        <v>2656</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>2656</v>
+        <v>2696</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>2700</v>
+        <v>2665</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>2665</v>
+        <v>2926</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>2926</v>
+        <v>2956</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>2956</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,106 +3376,106 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="n">
+        <v>31</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="I12" s="15" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>26</v>
+      </c>
+      <c r="K12" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="L12" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="M12" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="G12" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" s="15" t="n">
-        <v>28</v>
-      </c>
-      <c r="I12" s="15" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" s="15" t="n">
-        <v>23</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <v>26</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>24</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>35</v>
-      </c>
       <c r="N12" s="15" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P12" s="15" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R12" s="15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S12" s="15" t="n">
         <v>5</v>
       </c>
       <c r="T12" s="15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U12" s="15" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V12" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="W12" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="W12" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" s="15" t="n">
+      <c r="Y12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="Y12" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" s="15" t="n">
+      <c r="AA12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="AA12" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" s="15" t="n">
+      <c r="AH12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="15" t="n">
-        <v>2</v>
-      </c>
       <c r="AL12" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="15" t="n">
         <v>0</v>
@@ -3519,8 +3519,8 @@
       <c r="AZ12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="BA12" s="15" t="n">
-        <v>0</v>
+      <c r="BA12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BB12" s="16" t="s">
         <v>57</v>
@@ -3564,8 +3564,8 @@
       <c r="N13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" s="13" t="n">
-        <v>0</v>
+      <c r="O13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="P13" s="13" t="s">
         <v>57</v>
@@ -3694,73 +3694,73 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="n">
-        <v>1789</v>
+        <v>1909</v>
       </c>
       <c r="F14" s="16" t="n">
-        <v>1909</v>
+        <v>426</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>426</v>
+        <v>1238</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>1238</v>
+        <v>2054</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>2054</v>
+        <v>1374</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>1374</v>
+        <v>2286</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>2286</v>
+        <v>2350</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>2350</v>
+        <v>1356</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>1356</v>
+        <v>1845</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>1845</v>
+        <v>2520</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>2520</v>
+        <v>2445</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>2445</v>
+        <v>2525</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>2525</v>
+        <v>1919</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>1919</v>
+        <v>2022</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>2022</v>
+        <v>2541</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>2541</v>
+        <v>2676</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>2676</v>
+        <v>2491</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>2491</v>
+        <v>2580</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>2580</v>
+        <v>2623</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>2623</v>
+        <v>2517</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>2517</v>
+        <v>2498</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>2498</v>
-      </c>
-      <c r="AA14" s="16" t="n">
         <v>2576</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB14" s="16" t="s">
         <v>57</v>
@@ -3973,8 +3973,8 @@
       <c r="Z16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA16" s="20" t="s">
-        <v>57</v>
+      <c r="AA16" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB16" s="20" t="n">
         <v>0</v>
@@ -4065,154 +4065,154 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22" t="n">
-        <v>1813</v>
+        <v>1940</v>
       </c>
       <c r="F17" s="22" t="n">
-        <v>1940</v>
+        <v>435</v>
       </c>
       <c r="G17" s="22" t="n">
-        <v>435</v>
+        <v>1266</v>
       </c>
       <c r="H17" s="22" t="n">
-        <v>1266</v>
+        <v>2089</v>
       </c>
       <c r="I17" s="22" t="n">
-        <v>2089</v>
+        <v>1397</v>
       </c>
       <c r="J17" s="22" t="n">
-        <v>1397</v>
+        <v>2312</v>
       </c>
       <c r="K17" s="22" t="n">
-        <v>2312</v>
+        <v>2374</v>
       </c>
       <c r="L17" s="22" t="n">
-        <v>2374</v>
+        <v>1391</v>
       </c>
       <c r="M17" s="22" t="n">
-        <v>1391</v>
+        <v>1876</v>
       </c>
       <c r="N17" s="22" t="n">
-        <v>1876</v>
+        <v>2539</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>2539</v>
+        <v>2467</v>
       </c>
       <c r="P17" s="22" t="n">
-        <v>2467</v>
+        <v>2535</v>
       </c>
       <c r="Q17" s="22" t="n">
-        <v>2535</v>
+        <v>1930</v>
       </c>
       <c r="R17" s="22" t="n">
-        <v>1930</v>
+        <v>2027</v>
       </c>
       <c r="S17" s="22" t="n">
-        <v>2027</v>
+        <v>2546</v>
       </c>
       <c r="T17" s="22" t="n">
-        <v>2546</v>
+        <v>2691</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>2691</v>
+        <v>2500</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>2500</v>
+        <v>2590</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>2590</v>
+        <v>2634</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>2634</v>
+        <v>2526</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>2526</v>
+        <v>2501</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>2501</v>
+        <v>2587</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>2587</v>
+        <v>2413</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>2413</v>
+        <v>2286</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>2286</v>
+        <v>2531</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>2531</v>
+        <v>2673</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>2673</v>
+        <v>2768</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>2768</v>
+        <v>1862</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>1862</v>
+        <v>2575</v>
       </c>
       <c r="AH17" s="22" t="n">
-        <v>2575</v>
+        <v>2495</v>
       </c>
       <c r="AI17" s="22" t="n">
-        <v>2495</v>
+        <v>2343</v>
       </c>
       <c r="AJ17" s="22" t="n">
-        <v>2343</v>
+        <v>2159</v>
       </c>
       <c r="AK17" s="22" t="n">
-        <v>2159</v>
+        <v>2743</v>
       </c>
       <c r="AL17" s="22" t="n">
-        <v>2743</v>
+        <v>2754</v>
       </c>
       <c r="AM17" s="22" t="n">
-        <v>2754</v>
+        <v>2841</v>
       </c>
       <c r="AN17" s="22" t="n">
-        <v>2841</v>
+        <v>2631</v>
       </c>
       <c r="AO17" s="22" t="n">
-        <v>2631</v>
+        <v>2674</v>
       </c>
       <c r="AP17" s="22" t="n">
-        <v>2674</v>
+        <v>2823</v>
       </c>
       <c r="AQ17" s="22" t="n">
-        <v>2823</v>
+        <v>2594</v>
       </c>
       <c r="AR17" s="22" t="n">
-        <v>2594</v>
+        <v>2989</v>
       </c>
       <c r="AS17" s="22" t="n">
-        <v>2989</v>
+        <v>2732</v>
       </c>
       <c r="AT17" s="22" t="n">
-        <v>2732</v>
+        <v>2746</v>
       </c>
       <c r="AU17" s="22" t="n">
-        <v>2746</v>
+        <v>2355</v>
       </c>
       <c r="AV17" s="22" t="n">
-        <v>2355</v>
+        <v>2656</v>
       </c>
       <c r="AW17" s="22" t="n">
-        <v>2656</v>
+        <v>2696</v>
       </c>
       <c r="AX17" s="22" t="n">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="AY17" s="22" t="n">
-        <v>2700</v>
+        <v>2665</v>
       </c>
       <c r="AZ17" s="22" t="n">
-        <v>2665</v>
+        <v>2926</v>
       </c>
       <c r="BA17" s="22" t="n">
-        <v>2926</v>
+        <v>2956</v>
       </c>
       <c r="BB17" s="22" t="n">
-        <v>2956</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,89 +4723,89 @@
       <c r="Z24" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA24" s="13" t="s">
-        <v>57</v>
+      <c r="AA24" s="13" t="n">
+        <v>1930</v>
       </c>
       <c r="AB24" s="13" t="n">
-        <v>1930</v>
+        <v>2128</v>
       </c>
       <c r="AC24" s="13" t="n">
-        <v>2128</v>
+        <v>2471</v>
       </c>
       <c r="AD24" s="13" t="n">
-        <v>2471</v>
+        <v>2290</v>
       </c>
       <c r="AE24" s="13" t="n">
-        <v>2290</v>
+        <v>2742</v>
       </c>
       <c r="AF24" s="13" t="n">
-        <v>2742</v>
+        <v>2892</v>
       </c>
       <c r="AG24" s="13" t="n">
-        <v>2892</v>
+        <v>1939</v>
       </c>
       <c r="AH24" s="13" t="n">
-        <v>1939</v>
+        <v>2494</v>
       </c>
       <c r="AI24" s="13" t="n">
-        <v>2494</v>
+        <v>2559</v>
       </c>
       <c r="AJ24" s="13" t="n">
-        <v>2559</v>
+        <v>2111</v>
       </c>
       <c r="AK24" s="13" t="n">
-        <v>2111</v>
+        <v>2402</v>
       </c>
       <c r="AL24" s="13" t="n">
-        <v>2402</v>
+        <v>3772</v>
       </c>
       <c r="AM24" s="13" t="n">
-        <v>3772</v>
+        <v>2245</v>
       </c>
       <c r="AN24" s="13" t="n">
-        <v>2245</v>
+        <v>2598</v>
       </c>
       <c r="AO24" s="13" t="n">
-        <v>2598</v>
+        <v>2574</v>
       </c>
       <c r="AP24" s="13" t="n">
-        <v>2574</v>
+        <v>2218</v>
       </c>
       <c r="AQ24" s="13" t="n">
-        <v>2218</v>
+        <v>3052</v>
       </c>
       <c r="AR24" s="13" t="n">
-        <v>3052</v>
+        <v>3758756</v>
       </c>
       <c r="AS24" s="13" t="n">
-        <v>3758756</v>
+        <v>2414</v>
       </c>
       <c r="AT24" s="13" t="n">
-        <v>2414</v>
+        <v>2773</v>
       </c>
       <c r="AU24" s="13" t="n">
-        <v>2773</v>
+        <v>2289</v>
       </c>
       <c r="AV24" s="13" t="n">
-        <v>2289</v>
+        <v>2455</v>
       </c>
       <c r="AW24" s="13" t="n">
-        <v>2455</v>
+        <v>3112</v>
       </c>
       <c r="AX24" s="13" t="n">
-        <v>3112</v>
+        <v>3219</v>
       </c>
       <c r="AY24" s="13" t="n">
-        <v>3219</v>
+        <v>2131</v>
       </c>
       <c r="AZ24" s="13" t="n">
-        <v>2131</v>
+        <v>2744</v>
       </c>
       <c r="BA24" s="13" t="n">
-        <v>2744</v>
+        <v>2803</v>
       </c>
       <c r="BB24" s="13" t="n">
-        <v>2803</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,109 +4817,109 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="n">
+        <v>37</v>
+      </c>
+      <c r="F25" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="G25" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H25" s="16" t="n">
+        <v>50</v>
+      </c>
+      <c r="I25" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16" t="n">
         <v>37</v>
       </c>
-      <c r="G25" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="I25" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" s="16" t="n">
-        <v>23</v>
-      </c>
       <c r="K25" s="16" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M25" s="16" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N25" s="16" t="n">
         <v>46</v>
       </c>
       <c r="O25" s="16" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="P25" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="R25" s="16" t="n">
-        <v>7</v>
-      </c>
-      <c r="S25" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="T25" s="16" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U25" s="16" t="n">
         <v>13</v>
       </c>
       <c r="V25" s="16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="W25" s="16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X25" s="16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y25" s="16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="16" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AA25" s="16" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AC25" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AD25" s="16" t="n">
-        <v>3</v>
-      </c>
       <c r="AE25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="16" t="n">
         <v>2</v>
-      </c>
-      <c r="AF25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AH25" s="16" t="n">
         <v>2</v>
       </c>
       <c r="AI25" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AJ25" s="16" t="n">
+      <c r="AL25" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="AK25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="16" t="n">
-        <v>2</v>
-      </c>
       <c r="AM25" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="16" t="n">
         <v>0</v>
@@ -4960,8 +4960,8 @@
       <c r="AZ25" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA25" s="16" t="n">
-        <v>0</v>
+      <c r="BA25" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BB25" s="16" t="s">
         <v>57</v>
@@ -5005,8 +5005,8 @@
       <c r="N26" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O26" s="13" t="n">
-        <v>0</v>
+      <c r="O26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>57</v>
@@ -5135,73 +5135,73 @@
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="n">
-        <v>1916</v>
+        <v>2101</v>
       </c>
       <c r="F27" s="16" t="n">
-        <v>2101</v>
+        <v>239</v>
       </c>
       <c r="G27" s="16" t="n">
-        <v>239</v>
+        <v>1132</v>
       </c>
       <c r="H27" s="16" t="n">
-        <v>1132</v>
+        <v>2398</v>
       </c>
       <c r="I27" s="16" t="n">
-        <v>2398</v>
+        <v>831</v>
       </c>
       <c r="J27" s="16" t="n">
-        <v>831</v>
+        <v>1736</v>
       </c>
       <c r="K27" s="16" t="n">
-        <v>1736</v>
+        <v>2669</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>2669</v>
+        <v>1350</v>
       </c>
       <c r="M27" s="16" t="n">
-        <v>1350</v>
+        <v>1575</v>
       </c>
       <c r="N27" s="16" t="n">
-        <v>1575</v>
+        <v>3408</v>
       </c>
       <c r="O27" s="16" t="n">
-        <v>3408</v>
+        <v>1914</v>
       </c>
       <c r="P27" s="16" t="n">
-        <v>1914</v>
+        <v>2428</v>
       </c>
       <c r="Q27" s="16" t="n">
-        <v>2428</v>
+        <v>1831</v>
       </c>
       <c r="R27" s="16" t="n">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="S27" s="16" t="n">
-        <v>1833</v>
+        <v>2661</v>
       </c>
       <c r="T27" s="16" t="n">
-        <v>2661</v>
+        <v>2806</v>
       </c>
       <c r="U27" s="16" t="n">
-        <v>2806</v>
+        <v>2296</v>
       </c>
       <c r="V27" s="16" t="n">
-        <v>2296</v>
+        <v>2598</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>2598</v>
+        <v>2741</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>2741</v>
+        <v>2271</v>
       </c>
       <c r="Y27" s="16" t="n">
-        <v>2271</v>
+        <v>2336</v>
       </c>
       <c r="Z27" s="16" t="n">
-        <v>2336</v>
-      </c>
-      <c r="AA27" s="16" t="n">
         <v>3447</v>
+      </c>
+      <c r="AA27" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB27" s="16" t="s">
         <v>57</v>
@@ -5414,8 +5414,8 @@
       <c r="Z29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA29" s="20" t="s">
-        <v>57</v>
+      <c r="AA29" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB29" s="20" t="n">
         <v>0</v>
@@ -5630,53 +5630,53 @@
       <c r="Z31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA31" s="13" t="s">
-        <v>57</v>
+      <c r="AA31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="13" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AI31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AM31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN31" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO31" s="13" t="n">
         <v>-10</v>
       </c>
-      <c r="AH31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="13" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AJ31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AK31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO31" s="13" t="n">
-        <v>-1</v>
-      </c>
       <c r="AP31" s="13" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="13" t="n">
         <v>0</v>
@@ -5684,35 +5684,35 @@
       <c r="AR31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="13" t="s">
-        <v>57</v>
+      <c r="AS31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT31" s="13" t="n">
+        <v>-6</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>-183</v>
+        <v>-3</v>
       </c>
       <c r="AY31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="13" t="n">
         <v>-3</v>
-      </c>
-      <c r="AZ31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,53 +5787,53 @@
       <c r="Z32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA32" s="22" t="s">
-        <v>57</v>
+      <c r="AA32" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB32" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AC32" s="22" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AD32" s="22" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="22" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AG32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="22" t="n">
+        <v>-33</v>
+      </c>
+      <c r="AI32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="22" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AM32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO32" s="22" t="n">
         <v>-10</v>
       </c>
-      <c r="AH32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="22" t="n">
-        <v>-33</v>
-      </c>
-      <c r="AJ32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="22" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AN32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="22" t="n">
-        <v>-1</v>
-      </c>
       <c r="AP32" s="22" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="22" t="n">
         <v>0</v>
@@ -5845,31 +5845,31 @@
         <v>0</v>
       </c>
       <c r="AT32" s="22" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="AU32" s="22" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AW32" s="22" t="n">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="AX32" s="22" t="n">
-        <v>-183</v>
+        <v>-3</v>
       </c>
       <c r="AY32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="22" t="n">
         <v>-3</v>
-      </c>
-      <c r="AZ32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,154 +5879,154 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20" t="n">
-        <v>1918</v>
+        <v>2138</v>
       </c>
       <c r="F33" s="20" t="n">
-        <v>2138</v>
+        <v>241</v>
       </c>
       <c r="G33" s="20" t="n">
-        <v>241</v>
+        <v>1146</v>
       </c>
       <c r="H33" s="20" t="n">
-        <v>1146</v>
+        <v>2448</v>
       </c>
       <c r="I33" s="20" t="n">
-        <v>2448</v>
+        <v>854</v>
       </c>
       <c r="J33" s="20" t="n">
-        <v>854</v>
+        <v>1773</v>
       </c>
       <c r="K33" s="20" t="n">
-        <v>1773</v>
+        <v>2701</v>
       </c>
       <c r="L33" s="20" t="n">
-        <v>2701</v>
+        <v>1370</v>
       </c>
       <c r="M33" s="20" t="n">
-        <v>1370</v>
+        <v>1621</v>
       </c>
       <c r="N33" s="20" t="n">
-        <v>1621</v>
+        <v>3454</v>
       </c>
       <c r="O33" s="20" t="n">
-        <v>3454</v>
+        <v>1917</v>
       </c>
       <c r="P33" s="20" t="n">
-        <v>1917</v>
+        <v>2446</v>
       </c>
       <c r="Q33" s="20" t="n">
-        <v>2446</v>
+        <v>1838</v>
       </c>
       <c r="R33" s="20" t="n">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="S33" s="20" t="n">
-        <v>1833</v>
+        <v>2664</v>
       </c>
       <c r="T33" s="20" t="n">
-        <v>2664</v>
+        <v>2819</v>
       </c>
       <c r="U33" s="20" t="n">
-        <v>2819</v>
+        <v>2309</v>
       </c>
       <c r="V33" s="20" t="n">
-        <v>2309</v>
+        <v>2609</v>
       </c>
       <c r="W33" s="20" t="n">
-        <v>2609</v>
+        <v>2749</v>
       </c>
       <c r="X33" s="20" t="n">
-        <v>2749</v>
+        <v>2276</v>
       </c>
       <c r="Y33" s="20" t="n">
-        <v>2276</v>
+        <v>2339</v>
       </c>
       <c r="Z33" s="20" t="n">
-        <v>2339</v>
+        <v>3484</v>
       </c>
       <c r="AA33" s="20" t="n">
-        <v>3484</v>
+        <v>1932</v>
       </c>
       <c r="AB33" s="20" t="n">
-        <v>1932</v>
+        <v>2130</v>
       </c>
       <c r="AC33" s="20" t="n">
-        <v>2130</v>
+        <v>2458</v>
       </c>
       <c r="AD33" s="20" t="n">
-        <v>2458</v>
+        <v>2292</v>
       </c>
       <c r="AE33" s="20" t="n">
-        <v>2292</v>
+        <v>2742</v>
       </c>
       <c r="AF33" s="20" t="n">
-        <v>2742</v>
+        <v>2882</v>
       </c>
       <c r="AG33" s="20" t="n">
-        <v>2882</v>
+        <v>1941</v>
       </c>
       <c r="AH33" s="20" t="n">
-        <v>1941</v>
+        <v>2463</v>
       </c>
       <c r="AI33" s="20" t="n">
-        <v>2463</v>
+        <v>2560</v>
       </c>
       <c r="AJ33" s="20" t="n">
-        <v>2560</v>
+        <v>2112</v>
       </c>
       <c r="AK33" s="20" t="n">
-        <v>2112</v>
+        <v>2404</v>
       </c>
       <c r="AL33" s="20" t="n">
-        <v>2404</v>
+        <v>3771</v>
       </c>
       <c r="AM33" s="20" t="n">
-        <v>3771</v>
+        <v>2245</v>
       </c>
       <c r="AN33" s="20" t="n">
-        <v>2245</v>
+        <v>2597</v>
       </c>
       <c r="AO33" s="20" t="n">
-        <v>2597</v>
+        <v>2564</v>
       </c>
       <c r="AP33" s="20" t="n">
-        <v>2564</v>
+        <v>2218</v>
       </c>
       <c r="AQ33" s="20" t="n">
-        <v>2218</v>
+        <v>3052</v>
       </c>
       <c r="AR33" s="20" t="n">
-        <v>3052</v>
+        <v>3758756</v>
       </c>
       <c r="AS33" s="20" t="n">
-        <v>3758756</v>
+        <v>2414</v>
       </c>
       <c r="AT33" s="20" t="n">
-        <v>2414</v>
+        <v>2766</v>
       </c>
       <c r="AU33" s="20" t="n">
-        <v>2766</v>
+        <v>2289</v>
       </c>
       <c r="AV33" s="20" t="n">
-        <v>2289</v>
+        <v>2455</v>
       </c>
       <c r="AW33" s="20" t="n">
-        <v>2455</v>
+        <v>2929</v>
       </c>
       <c r="AX33" s="20" t="n">
-        <v>2929</v>
+        <v>3216</v>
       </c>
       <c r="AY33" s="20" t="n">
-        <v>3216</v>
+        <v>2131</v>
       </c>
       <c r="AZ33" s="20" t="n">
-        <v>2131</v>
+        <v>2744</v>
       </c>
       <c r="BA33" s="20" t="n">
-        <v>2744</v>
+        <v>2803</v>
       </c>
       <c r="BB33" s="20" t="n">
-        <v>2803</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,89 +6537,89 @@
       <c r="Z40" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA40" s="13" t="s">
-        <v>57</v>
+      <c r="AA40" s="13" t="n">
+        <v>1191457</v>
       </c>
       <c r="AB40" s="13" t="n">
-        <v>1191457</v>
+        <v>1355871</v>
       </c>
       <c r="AC40" s="13" t="n">
-        <v>1355871</v>
+        <v>1592498</v>
       </c>
       <c r="AD40" s="13" t="n">
-        <v>1592498</v>
+        <v>1523931</v>
       </c>
       <c r="AE40" s="13" t="n">
-        <v>1523931</v>
+        <v>1819777</v>
       </c>
       <c r="AF40" s="13" t="n">
-        <v>1819777</v>
+        <v>1892779</v>
       </c>
       <c r="AG40" s="13" t="n">
-        <v>1892779</v>
+        <v>1193279</v>
       </c>
       <c r="AH40" s="13" t="n">
-        <v>1193279</v>
+        <v>1695357</v>
       </c>
       <c r="AI40" s="13" t="n">
-        <v>1695357</v>
+        <v>1712597</v>
       </c>
       <c r="AJ40" s="13" t="n">
-        <v>1712597</v>
+        <v>1392264</v>
       </c>
       <c r="AK40" s="13" t="n">
-        <v>1392264</v>
+        <v>1666609</v>
       </c>
       <c r="AL40" s="13" t="n">
-        <v>1666609</v>
+        <v>2406247</v>
       </c>
       <c r="AM40" s="13" t="n">
-        <v>2406247</v>
+        <v>1528367</v>
       </c>
       <c r="AN40" s="13" t="n">
-        <v>1528367</v>
+        <v>1828344</v>
       </c>
       <c r="AO40" s="13" t="n">
-        <v>1828344</v>
+        <v>1741513</v>
       </c>
       <c r="AP40" s="13" t="n">
-        <v>1741513</v>
+        <v>1414660</v>
       </c>
       <c r="AQ40" s="13" t="n">
-        <v>1414660</v>
+        <v>2144452</v>
       </c>
       <c r="AR40" s="13" t="n">
-        <v>2144452</v>
+        <v>3184013</v>
       </c>
       <c r="AS40" s="13" t="n">
-        <v>3184013</v>
+        <v>2011958</v>
       </c>
       <c r="AT40" s="13" t="n">
-        <v>2011958</v>
+        <v>2463859</v>
       </c>
       <c r="AU40" s="13" t="n">
-        <v>2463859</v>
+        <v>2101282</v>
       </c>
       <c r="AV40" s="13" t="n">
-        <v>2101282</v>
+        <v>2264156</v>
       </c>
       <c r="AW40" s="13" t="n">
-        <v>2264156</v>
+        <v>2882096</v>
       </c>
       <c r="AX40" s="13" t="n">
-        <v>2882096</v>
+        <v>3042227</v>
       </c>
       <c r="AY40" s="13" t="n">
-        <v>3042227</v>
+        <v>2047893</v>
       </c>
       <c r="AZ40" s="13" t="n">
-        <v>2047893</v>
+        <v>2773232</v>
       </c>
       <c r="BA40" s="13" t="n">
-        <v>2773232</v>
+        <v>2987920</v>
       </c>
       <c r="BB40" s="13" t="n">
-        <v>2987920</v>
+        <v>3276050</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,109 +6631,109 @@
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16" t="n">
-        <v>222</v>
+        <v>5615</v>
       </c>
       <c r="F41" s="16" t="n">
-        <v>5615</v>
+        <v>272</v>
       </c>
       <c r="G41" s="16" t="n">
-        <v>272</v>
+        <v>2063</v>
       </c>
       <c r="H41" s="16" t="n">
-        <v>2063</v>
+        <v>7339</v>
       </c>
       <c r="I41" s="16" t="n">
-        <v>7339</v>
+        <v>3844</v>
       </c>
       <c r="J41" s="16" t="n">
-        <v>3844</v>
+        <v>6092</v>
       </c>
       <c r="K41" s="16" t="n">
-        <v>6092</v>
+        <v>5244</v>
       </c>
       <c r="L41" s="16" t="n">
-        <v>5244</v>
+        <v>3286</v>
       </c>
       <c r="M41" s="16" t="n">
-        <v>3286</v>
+        <v>8054</v>
       </c>
       <c r="N41" s="16" t="n">
-        <v>8054</v>
+        <v>7895</v>
       </c>
       <c r="O41" s="16" t="n">
-        <v>7895</v>
+        <v>513</v>
       </c>
       <c r="P41" s="16" t="n">
-        <v>513</v>
+        <v>3569</v>
       </c>
       <c r="Q41" s="16" t="n">
-        <v>3569</v>
+        <v>1589</v>
       </c>
       <c r="R41" s="16" t="n">
-        <v>1589</v>
+        <v>15</v>
       </c>
       <c r="S41" s="16" t="n">
-        <v>15</v>
+        <v>685</v>
       </c>
       <c r="T41" s="16" t="n">
-        <v>685</v>
+        <v>2706</v>
       </c>
       <c r="U41" s="16" t="n">
-        <v>2706</v>
+        <v>3323</v>
       </c>
       <c r="V41" s="16" t="n">
-        <v>3323</v>
+        <v>2970</v>
       </c>
       <c r="W41" s="16" t="n">
-        <v>2970</v>
+        <v>2539</v>
       </c>
       <c r="X41" s="16" t="n">
-        <v>2539</v>
+        <v>1695</v>
       </c>
       <c r="Y41" s="16" t="n">
-        <v>1695</v>
+        <v>615</v>
       </c>
       <c r="Z41" s="16" t="n">
-        <v>615</v>
+        <v>17649</v>
       </c>
       <c r="AA41" s="16" t="n">
-        <v>17649</v>
+        <v>1141</v>
       </c>
       <c r="AB41" s="16" t="n">
-        <v>1141</v>
+        <v>619</v>
       </c>
       <c r="AC41" s="16" t="n">
-        <v>619</v>
+        <v>1458</v>
       </c>
       <c r="AD41" s="16" t="n">
-        <v>1458</v>
+        <v>762</v>
       </c>
       <c r="AE41" s="16" t="n">
-        <v>762</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AG41" s="16" t="n">
-        <v>0</v>
+        <v>852</v>
       </c>
       <c r="AH41" s="16" t="n">
-        <v>852</v>
+        <v>883</v>
       </c>
       <c r="AI41" s="16" t="n">
-        <v>883</v>
+        <v>448</v>
       </c>
       <c r="AJ41" s="16" t="n">
-        <v>448</v>
+        <v>217</v>
       </c>
       <c r="AK41" s="16" t="n">
-        <v>217</v>
+        <v>1009</v>
       </c>
       <c r="AL41" s="16" t="n">
-        <v>1009</v>
+        <v>583</v>
       </c>
       <c r="AM41" s="16" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="16" t="n">
         <v>0</v>
@@ -6751,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="AS41" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT41" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="16" t="n">
         <v>0</v>
@@ -6774,8 +6774,8 @@
       <c r="AZ41" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BA41" s="16" t="n">
-        <v>0</v>
+      <c r="BA41" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="BB41" s="16" t="s">
         <v>57</v>
@@ -6790,7 +6790,7 @@
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F42" s="13" t="n">
         <v>0</v>
@@ -6819,8 +6819,8 @@
       <c r="N42" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="13" t="n">
-        <v>0</v>
+      <c r="O42" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>57</v>
@@ -6949,73 +6949,73 @@
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="16" t="n">
-        <v>371478</v>
+        <v>410796</v>
       </c>
       <c r="F43" s="16" t="n">
-        <v>410796</v>
+        <v>44938</v>
       </c>
       <c r="G43" s="16" t="n">
-        <v>44938</v>
+        <v>234521</v>
       </c>
       <c r="H43" s="16" t="n">
-        <v>234521</v>
+        <v>484029</v>
       </c>
       <c r="I43" s="16" t="n">
-        <v>484029</v>
+        <v>174519</v>
       </c>
       <c r="J43" s="16" t="n">
-        <v>174519</v>
+        <v>407145</v>
       </c>
       <c r="K43" s="16" t="n">
-        <v>407145</v>
+        <v>692900</v>
       </c>
       <c r="L43" s="16" t="n">
-        <v>692900</v>
+        <v>346214</v>
       </c>
       <c r="M43" s="16" t="n">
-        <v>346214</v>
+        <v>369645</v>
       </c>
       <c r="N43" s="16" t="n">
-        <v>369645</v>
+        <v>843042</v>
       </c>
       <c r="O43" s="16" t="n">
-        <v>843042</v>
+        <v>496206</v>
       </c>
       <c r="P43" s="16" t="n">
-        <v>496206</v>
+        <v>644252</v>
       </c>
       <c r="Q43" s="16" t="n">
-        <v>644252</v>
+        <v>492123</v>
       </c>
       <c r="R43" s="16" t="n">
-        <v>492123</v>
+        <v>479085</v>
       </c>
       <c r="S43" s="16" t="n">
-        <v>479085</v>
+        <v>713186</v>
       </c>
       <c r="T43" s="16" t="n">
-        <v>713186</v>
+        <v>756541</v>
       </c>
       <c r="U43" s="16" t="n">
-        <v>756541</v>
+        <v>784741</v>
       </c>
       <c r="V43" s="16" t="n">
-        <v>784741</v>
+        <v>935129</v>
       </c>
       <c r="W43" s="16" t="n">
-        <v>935129</v>
+        <v>1107966</v>
       </c>
       <c r="X43" s="16" t="n">
-        <v>1107966</v>
+        <v>956995</v>
       </c>
       <c r="Y43" s="16" t="n">
-        <v>956995</v>
+        <v>1014561</v>
       </c>
       <c r="Z43" s="16" t="n">
-        <v>1014561</v>
-      </c>
-      <c r="AA43" s="16" t="n">
         <v>2319677</v>
+      </c>
+      <c r="AA43" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB43" s="16" t="s">
         <v>57</v>
@@ -7230,8 +7230,8 @@
       <c r="Z45" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA45" s="20" t="s">
-        <v>57</v>
+      <c r="AA45" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB45" s="23" t="n">
         <v>0</v>
@@ -7446,89 +7446,89 @@
       <c r="Z47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA47" s="13" t="s">
-        <v>57</v>
+      <c r="AA47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>-78</v>
+        <v>-5051</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>-5051</v>
+        <v>-90</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>-90</v>
+        <v>-4</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>-4</v>
+        <v>-6637</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>-6637</v>
+        <v>-24</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>-24</v>
+        <v>-28202</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>-28202</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>-37</v>
+        <v>-8</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>-8</v>
+        <v>-1637</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>-1637</v>
+        <v>0</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>0</v>
+        <v>-594</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>-594</v>
+        <v>-10484</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AQ47" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>-14</v>
+        <v>-7134</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>-7134</v>
+        <v>-38</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>0</v>
+        <v>-148836</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>-148836</v>
+        <v>-3622</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>-3622</v>
+        <v>-62</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>-62</v>
+        <v>-402</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>-402</v>
+        <v>-9</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>-9</v>
+        <v>-3625</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,89 +7605,89 @@
       <c r="Z48" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AA48" s="22" t="s">
-        <v>57</v>
+      <c r="AA48" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB48" s="24" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="AC48" s="24" t="n">
-        <v>-78</v>
+        <v>-5051</v>
       </c>
       <c r="AD48" s="24" t="n">
-        <v>-5051</v>
+        <v>-90</v>
       </c>
       <c r="AE48" s="24" t="n">
-        <v>-90</v>
+        <v>-4</v>
       </c>
       <c r="AF48" s="24" t="n">
-        <v>-4</v>
+        <v>-6637</v>
       </c>
       <c r="AG48" s="24" t="n">
-        <v>-6637</v>
+        <v>-24</v>
       </c>
       <c r="AH48" s="24" t="n">
-        <v>-24</v>
+        <v>-28202</v>
       </c>
       <c r="AI48" s="24" t="n">
-        <v>-28202</v>
+        <v>0</v>
       </c>
       <c r="AJ48" s="24" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AK48" s="24" t="n">
-        <v>-37</v>
+        <v>-8</v>
       </c>
       <c r="AL48" s="24" t="n">
-        <v>-8</v>
+        <v>-1637</v>
       </c>
       <c r="AM48" s="24" t="n">
-        <v>-1637</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="24" t="n">
-        <v>0</v>
+        <v>-594</v>
       </c>
       <c r="AO48" s="24" t="n">
-        <v>-594</v>
+        <v>-10484</v>
       </c>
       <c r="AP48" s="24" t="n">
-        <v>-10484</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="24" t="n">
         <v>0</v>
       </c>
       <c r="AR48" s="24" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AS48" s="24" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="AT48" s="24" t="n">
-        <v>-14</v>
+        <v>-7134</v>
       </c>
       <c r="AU48" s="24" t="n">
-        <v>-7134</v>
+        <v>-38</v>
       </c>
       <c r="AV48" s="24" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="24" t="n">
-        <v>0</v>
+        <v>-148836</v>
       </c>
       <c r="AX48" s="24" t="n">
-        <v>-148836</v>
+        <v>-3622</v>
       </c>
       <c r="AY48" s="24" t="n">
-        <v>-3622</v>
+        <v>-62</v>
       </c>
       <c r="AZ48" s="24" t="n">
-        <v>-62</v>
+        <v>-402</v>
       </c>
       <c r="BA48" s="24" t="n">
-        <v>-402</v>
+        <v>-9</v>
       </c>
       <c r="BB48" s="24" t="n">
-        <v>-9</v>
+        <v>-3625</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,20 +7821,20 @@
       <c r="Z50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA50" s="13" t="s">
-        <v>57</v>
+      <c r="AA50" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>-109</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>0</v>
+        <v>-108</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>-108</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="13" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="13" t="n">
         <v>0</v>
@@ -7855,55 +7855,55 @@
         <v>0</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>0</v>
+        <v>-38</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>-20</v>
+        <v>-981</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>-981</v>
+        <v>-2552</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>-2552</v>
+        <v>-663</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>-663</v>
+        <v>-747</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>-747</v>
+        <v>-664</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>-664</v>
+        <v>-2136</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>-2136</v>
+        <v>-2432</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>-2432</v>
+        <v>-4595</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>-4595</v>
+        <v>-630</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>-630</v>
+        <v>-1632</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>-1632</v>
+        <v>-2352</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>-2352</v>
+        <v>-5626</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,154 +7913,154 @@
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="24" t="n">
-        <v>371735</v>
+        <v>416411</v>
       </c>
       <c r="F51" s="24" t="n">
-        <v>416411</v>
+        <v>45210</v>
       </c>
       <c r="G51" s="24" t="n">
-        <v>45210</v>
+        <v>236584</v>
       </c>
       <c r="H51" s="24" t="n">
-        <v>236584</v>
+        <v>491368</v>
       </c>
       <c r="I51" s="24" t="n">
-        <v>491368</v>
+        <v>178363</v>
       </c>
       <c r="J51" s="24" t="n">
-        <v>178363</v>
+        <v>413237</v>
       </c>
       <c r="K51" s="24" t="n">
-        <v>413237</v>
+        <v>698144</v>
       </c>
       <c r="L51" s="24" t="n">
-        <v>698144</v>
+        <v>349500</v>
       </c>
       <c r="M51" s="24" t="n">
-        <v>349500</v>
+        <v>377699</v>
       </c>
       <c r="N51" s="24" t="n">
-        <v>377699</v>
+        <v>850937</v>
       </c>
       <c r="O51" s="24" t="n">
-        <v>850937</v>
+        <v>496719</v>
       </c>
       <c r="P51" s="24" t="n">
-        <v>496719</v>
+        <v>647821</v>
       </c>
       <c r="Q51" s="24" t="n">
-        <v>647821</v>
+        <v>493712</v>
       </c>
       <c r="R51" s="24" t="n">
-        <v>493712</v>
+        <v>479100</v>
       </c>
       <c r="S51" s="24" t="n">
-        <v>479100</v>
+        <v>713871</v>
       </c>
       <c r="T51" s="24" t="n">
-        <v>713871</v>
+        <v>759247</v>
       </c>
       <c r="U51" s="24" t="n">
-        <v>759247</v>
+        <v>788064</v>
       </c>
       <c r="V51" s="24" t="n">
-        <v>788064</v>
+        <v>938099</v>
       </c>
       <c r="W51" s="24" t="n">
-        <v>938099</v>
+        <v>1110505</v>
       </c>
       <c r="X51" s="24" t="n">
-        <v>1110505</v>
+        <v>958690</v>
       </c>
       <c r="Y51" s="24" t="n">
-        <v>958690</v>
+        <v>1015176</v>
       </c>
       <c r="Z51" s="24" t="n">
-        <v>1015176</v>
+        <v>2337326</v>
       </c>
       <c r="AA51" s="24" t="n">
-        <v>2337326</v>
+        <v>1192598</v>
       </c>
       <c r="AB51" s="24" t="n">
-        <v>1192598</v>
+        <v>1356303</v>
       </c>
       <c r="AC51" s="24" t="n">
-        <v>1356303</v>
+        <v>1588905</v>
       </c>
       <c r="AD51" s="24" t="n">
-        <v>1588905</v>
+        <v>1524495</v>
       </c>
       <c r="AE51" s="24" t="n">
-        <v>1524495</v>
+        <v>1819773</v>
       </c>
       <c r="AF51" s="24" t="n">
-        <v>1819773</v>
+        <v>1886142</v>
       </c>
       <c r="AG51" s="24" t="n">
-        <v>1886142</v>
+        <v>1194107</v>
       </c>
       <c r="AH51" s="24" t="n">
-        <v>1194107</v>
+        <v>1668037</v>
       </c>
       <c r="AI51" s="24" t="n">
-        <v>1668037</v>
+        <v>1713045</v>
       </c>
       <c r="AJ51" s="24" t="n">
-        <v>1713045</v>
+        <v>1392444</v>
       </c>
       <c r="AK51" s="24" t="n">
-        <v>1392444</v>
+        <v>1667610</v>
       </c>
       <c r="AL51" s="24" t="n">
-        <v>1667610</v>
+        <v>2404975</v>
       </c>
       <c r="AM51" s="24" t="n">
-        <v>2404975</v>
+        <v>1528367</v>
       </c>
       <c r="AN51" s="24" t="n">
-        <v>1528367</v>
+        <v>1827712</v>
       </c>
       <c r="AO51" s="24" t="n">
-        <v>1827712</v>
+        <v>1731029</v>
       </c>
       <c r="AP51" s="24" t="n">
-        <v>1731029</v>
+        <v>1414640</v>
       </c>
       <c r="AQ51" s="24" t="n">
-        <v>1414640</v>
+        <v>2143471</v>
       </c>
       <c r="AR51" s="24" t="n">
-        <v>2143471</v>
+        <v>3181426</v>
       </c>
       <c r="AS51" s="24" t="n">
-        <v>3181426</v>
+        <v>2011282</v>
       </c>
       <c r="AT51" s="24" t="n">
-        <v>2011282</v>
+        <v>2455978</v>
       </c>
       <c r="AU51" s="24" t="n">
-        <v>2455978</v>
+        <v>2100580</v>
       </c>
       <c r="AV51" s="24" t="n">
-        <v>2100580</v>
+        <v>2262020</v>
       </c>
       <c r="AW51" s="24" t="n">
-        <v>2262020</v>
+        <v>2730828</v>
       </c>
       <c r="AX51" s="24" t="n">
-        <v>2730828</v>
+        <v>3034010</v>
       </c>
       <c r="AY51" s="24" t="n">
-        <v>3034010</v>
+        <v>2047201</v>
       </c>
       <c r="AZ51" s="24" t="n">
-        <v>2047201</v>
+        <v>2771198</v>
       </c>
       <c r="BA51" s="24" t="n">
-        <v>2771198</v>
+        <v>2985559</v>
       </c>
       <c r="BB51" s="24" t="n">
-        <v>2985559</v>
+        <v>3266799</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8571,89 +8571,89 @@
       <c r="Z58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA58" s="13" t="s">
-        <v>57</v>
+      <c r="AA58" s="13" t="n">
+        <v>617335233</v>
       </c>
       <c r="AB58" s="13" t="n">
-        <v>617335233</v>
+        <v>637135568</v>
       </c>
       <c r="AC58" s="13" t="n">
-        <v>637135568</v>
+        <v>644355941</v>
       </c>
       <c r="AD58" s="13" t="n">
-        <v>644355941</v>
+        <v>665452873</v>
       </c>
       <c r="AE58" s="13" t="n">
-        <v>665452873</v>
+        <v>663560071</v>
       </c>
       <c r="AF58" s="13" t="n">
-        <v>663560071</v>
+        <v>654401911</v>
       </c>
       <c r="AG58" s="13" t="n">
-        <v>654401911</v>
+        <v>615457101</v>
       </c>
       <c r="AH58" s="13" t="n">
-        <v>615457101</v>
+        <v>679847858</v>
       </c>
       <c r="AI58" s="13" t="n">
-        <v>679847858</v>
+        <v>669182651</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>669182651</v>
+        <v>659472579</v>
       </c>
       <c r="AK58" s="13" t="n">
-        <v>659472579</v>
+        <v>693923972</v>
       </c>
       <c r="AL58" s="13" t="n">
-        <v>693923972</v>
+        <v>637923383</v>
       </c>
       <c r="AM58" s="13" t="n">
-        <v>637923383</v>
+        <v>680746450</v>
       </c>
       <c r="AN58" s="13" t="n">
-        <v>680746450</v>
+        <v>703885502</v>
       </c>
       <c r="AO58" s="13" t="n">
-        <v>703885502</v>
+        <v>676562706</v>
       </c>
       <c r="AP58" s="13" t="n">
-        <v>676562706</v>
+        <v>637722868</v>
       </c>
       <c r="AQ58" s="13" t="n">
-        <v>637722868</v>
+        <v>702554939</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>702554939</v>
+        <v>847092</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>847092</v>
+        <v>833323186</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>833323186</v>
+        <v>888672920</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>888672920</v>
+        <v>918136464</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>918136464</v>
+        <v>922409670</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>922409670</v>
+        <v>926239471</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>926239471</v>
+        <v>945002299</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>945002299</v>
+        <v>960811572</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>960811572</v>
+        <v>1010619914</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>1010619914</v>
+        <v>1066044434</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>1066044434</v>
+        <v>1139269780</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,110 +8665,110 @@
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="n">
-        <v>111000000</v>
+        <v>151756757</v>
       </c>
       <c r="F59" s="16" t="n">
-        <v>151756757</v>
+        <v>136000000</v>
       </c>
       <c r="G59" s="16" t="n">
-        <v>136000000</v>
+        <v>147357143</v>
       </c>
       <c r="H59" s="16" t="n">
-        <v>147357143</v>
+        <v>146780000</v>
       </c>
       <c r="I59" s="16" t="n">
-        <v>146780000</v>
+        <v>167130435</v>
       </c>
       <c r="J59" s="16" t="n">
-        <v>167130435</v>
+        <v>164648649</v>
       </c>
       <c r="K59" s="16" t="n">
-        <v>164648649</v>
+        <v>163875000</v>
       </c>
       <c r="L59" s="16" t="n">
-        <v>163875000</v>
+        <v>164300000</v>
       </c>
       <c r="M59" s="16" t="n">
-        <v>164300000</v>
+        <v>175086957</v>
       </c>
       <c r="N59" s="16" t="n">
-        <v>175086957</v>
+        <v>171630435</v>
       </c>
       <c r="O59" s="16" t="n">
-        <v>171630435</v>
+        <v>171000000</v>
       </c>
       <c r="P59" s="16" t="n">
-        <v>171000000</v>
+        <v>198277778</v>
       </c>
       <c r="Q59" s="16" t="n">
-        <v>198277778</v>
+        <v>227000000</v>
       </c>
       <c r="R59" s="16" t="n">
-        <v>227000000</v>
+        <v>0</v>
       </c>
       <c r="S59" s="16" t="n">
-        <v>0</v>
+        <v>228333333</v>
       </c>
       <c r="T59" s="16" t="n">
-        <v>228333333</v>
+        <v>208153846</v>
       </c>
       <c r="U59" s="16" t="n">
-        <v>208153846</v>
+        <v>255615385</v>
       </c>
       <c r="V59" s="16" t="n">
-        <v>255615385</v>
+        <v>270000000</v>
       </c>
       <c r="W59" s="16" t="n">
-        <v>270000000</v>
+        <v>317375000</v>
       </c>
       <c r="X59" s="16" t="n">
-        <v>317375000</v>
+        <v>339000000</v>
       </c>
       <c r="Y59" s="16" t="n">
-        <v>339000000</v>
+        <v>205000000</v>
       </c>
       <c r="Z59" s="16" t="n">
-        <v>205000000</v>
+        <v>477000000</v>
       </c>
       <c r="AA59" s="16" t="n">
-        <v>477000000</v>
+        <v>570500000</v>
       </c>
       <c r="AB59" s="16" t="n">
-        <v>570500000</v>
+        <v>353512279</v>
       </c>
       <c r="AC59" s="16" t="n">
-        <v>353512279</v>
+        <v>453358209</v>
       </c>
       <c r="AD59" s="16" t="n">
-        <v>453358209</v>
-      </c>
-      <c r="AE59" s="16" t="n">
         <v>473586078</v>
       </c>
+      <c r="AE59" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AF59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AG59" s="16" t="s">
-        <v>57</v>
+      <c r="AG59" s="16" t="n">
+        <v>474123539</v>
       </c>
       <c r="AH59" s="16" t="n">
-        <v>474123539</v>
+        <v>472192513</v>
       </c>
       <c r="AI59" s="16" t="n">
-        <v>472192513</v>
+        <v>472573840</v>
       </c>
       <c r="AJ59" s="16" t="n">
-        <v>472573840</v>
+        <v>474835886</v>
       </c>
       <c r="AK59" s="16" t="n">
-        <v>474835886</v>
+        <v>473486626</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>473486626</v>
-      </c>
-      <c r="AM59" s="16" t="n">
         <v>473983740</v>
       </c>
+      <c r="AM59" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AN59" s="16" t="s">
         <v>57</v>
       </c>
@@ -8784,11 +8784,11 @@
       <c r="AR59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AS59" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT59" s="16" t="n">
+      <c r="AS59" s="16" t="n">
         <v>500000000</v>
+      </c>
+      <c r="AT59" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AU59" s="16" t="s">
         <v>57</v>
@@ -8853,8 +8853,8 @@
       <c r="N60" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O60" s="13" t="n">
-        <v>0</v>
+      <c r="O60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="P60" s="13" t="s">
         <v>57</v>
@@ -8983,73 +8983,73 @@
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16" t="n">
-        <v>193882046</v>
+        <v>195524036</v>
       </c>
       <c r="F61" s="16" t="n">
-        <v>195524036</v>
+        <v>188025105</v>
       </c>
       <c r="G61" s="16" t="n">
-        <v>188025105</v>
+        <v>207174028</v>
       </c>
       <c r="H61" s="16" t="n">
-        <v>207174028</v>
+        <v>201846956</v>
       </c>
       <c r="I61" s="16" t="n">
-        <v>201846956</v>
+        <v>210010830</v>
       </c>
       <c r="J61" s="16" t="n">
-        <v>210010830</v>
+        <v>234530530</v>
       </c>
       <c r="K61" s="16" t="n">
-        <v>234530530</v>
+        <v>259610341</v>
       </c>
       <c r="L61" s="16" t="n">
-        <v>259610341</v>
+        <v>256454815</v>
       </c>
       <c r="M61" s="16" t="n">
-        <v>256454815</v>
+        <v>234695238</v>
       </c>
       <c r="N61" s="16" t="n">
-        <v>234695238</v>
+        <v>247371479</v>
       </c>
       <c r="O61" s="16" t="n">
-        <v>247371479</v>
+        <v>259250784</v>
       </c>
       <c r="P61" s="16" t="n">
-        <v>259250784</v>
+        <v>265342669</v>
       </c>
       <c r="Q61" s="16" t="n">
-        <v>265342669</v>
+        <v>268772802</v>
       </c>
       <c r="R61" s="16" t="n">
-        <v>268772802</v>
+        <v>261366612</v>
       </c>
       <c r="S61" s="16" t="n">
-        <v>261366612</v>
+        <v>268014280</v>
       </c>
       <c r="T61" s="16" t="n">
-        <v>268014280</v>
+        <v>269615467</v>
       </c>
       <c r="U61" s="16" t="n">
-        <v>269615467</v>
+        <v>341786150</v>
       </c>
       <c r="V61" s="16" t="n">
-        <v>341786150</v>
+        <v>359941878</v>
       </c>
       <c r="W61" s="16" t="n">
-        <v>359941878</v>
+        <v>404219628</v>
       </c>
       <c r="X61" s="16" t="n">
-        <v>404219628</v>
+        <v>421398063</v>
       </c>
       <c r="Y61" s="16" t="n">
-        <v>421398063</v>
+        <v>434315497</v>
       </c>
       <c r="Z61" s="16" t="n">
-        <v>434315497</v>
-      </c>
-      <c r="AA61" s="16" t="n">
         <v>672955323</v>
+      </c>
+      <c r="AA61" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AB61" s="16" t="s">
         <v>57</v>

--- a/database/industries/lastic/pekavir/product/monthly.xlsx
+++ b/database/industries/lastic/pekavir/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADD7E8-B977-477D-9BFC-DE4B6BA3ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5369C6-1DCA-4A89-B5CF-88D94222A305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="5148" windowWidth="13800" windowHeight="7092" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -728,7 +728,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AJ13" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2961,7 +2963,7 @@
         <v>3052</v>
       </c>
       <c r="AQ24" s="11">
-        <v>3758756</v>
+        <v>3758</v>
       </c>
       <c r="AR24" s="11">
         <v>2414</v>
@@ -4182,7 +4184,7 @@
         <v>3052</v>
       </c>
       <c r="AQ33" s="17">
-        <v>3758756</v>
+        <v>3758</v>
       </c>
       <c r="AR33" s="17">
         <v>2414</v>
